--- a/sources_file/template.xlsx
+++ b/sources_file/template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BAST_Creator\sources_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67F6292-A326-4E77-9F74-E6038B3CCCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA916F-A03A-4A61-BF4C-30002DEB5A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MASTER" sheetId="32" r:id="rId1"/>
+    <sheet name="MASTER" sheetId="32" state="hidden" r:id="rId1"/>
     <sheet name="Check List BAST_1" sheetId="64" state="hidden" r:id="rId2"/>
     <sheet name="checklist binder" sheetId="61" state="hidden" r:id="rId3"/>
     <sheet name="bast I PO" sheetId="67" r:id="rId4"/>
@@ -4705,9 +4705,6 @@
     <t>Type Tower/Heigh</t>
   </si>
   <si>
-    <t xml:space="preserve">Pekerjaan telah selesai Dengan Catatan / Tanpa Catatan (coretsalahsatu) dengan hasil baik </t>
-  </si>
-  <si>
     <t xml:space="preserve">sesuai dengan ketentuan dan syarat-syarat Kontrak / Purchase Order tersebut di atas dan oleh karenanya </t>
   </si>
   <si>
@@ -5842,59 +5839,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Secara keseluruhan pekerjaan tersebut mengalami </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keterlambatan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/percepatan pekerjaan</t>
-    </r>
-  </si>
-  <si>
     <t>Eko Budianto</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Pada hari ini .................... Tanggal .............. Bulan ..................... Tahun </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dua Ribu Dua Puluh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Tiga,</t>
-    </r>
   </si>
   <si>
     <t>Ver. 2.0</t>
@@ -6163,6 +6108,123 @@
   <si>
     <t>P15-CPM-L4-005/F-002</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secara keseluruhan pekerjaan tersebut mengalami </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keterlambatan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/percepatan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pekerjaan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pekerjaan telah selesai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Strike"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Strike"/>
+      </rPr>
+      <t>Dengan Catatan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ Tanpa Catatan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (coret salah satu) dengan hasil baik </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pada hari ini .................... Tanggal .............. Bulan ..................... Tahun </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dua Ribu Dua Puluh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Lima,</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -6217,13 +6279,20 @@
     <numFmt numFmtId="207" formatCode="#,##0.00000"/>
     <numFmt numFmtId="208" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="167">
+  <fonts count="170">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7292,14 +7361,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Wingdings"/>
       <charset val="2"/>
@@ -7317,6 +7378,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Strike"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Strike"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -8029,608 +8110,602 @@
   </borders>
   <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="178" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="180" fontId="90" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="180" fontId="91" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="91" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="92" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="92" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="92" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="93" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="94" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0">
+    <xf numFmtId="181" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="95" fillId="11" borderId="1">
+    <xf numFmtId="183" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="96" fillId="11" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="22" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="22" applyNumberFormat="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="100" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="102" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="101" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="186" fontId="103" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="12" borderId="6">
+    <xf numFmtId="0" fontId="104" fillId="12" borderId="6">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="187" fontId="105" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="188" fontId="102" fillId="0" borderId="0">
+    <xf numFmtId="187" fontId="106" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="188" fontId="103" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="43"/>
-    <xf numFmtId="189" fontId="102" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="43"/>
+    <xf numFmtId="189" fontId="103" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0">
+    <xf numFmtId="190" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="102" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="103" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="13" borderId="44">
+    <xf numFmtId="0" fontId="104" fillId="13" borderId="44">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="38" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="47" fillId="0" borderId="13" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="38" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="191" fontId="48" fillId="0" borderId="13" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="13" borderId="1" applyBorder="0">
+    <xf numFmtId="0" fontId="111" fillId="13" borderId="1" applyBorder="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="14" borderId="22" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="112" fillId="14" borderId="22" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="192" fontId="102" fillId="0" borderId="0">
+    <xf numFmtId="192" fontId="103" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="192" fontId="102" fillId="0" borderId="0">
+    <xf numFmtId="192" fontId="103" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="15" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="1">
+    <xf numFmtId="10" fontId="23" fillId="15" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="193" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="114" fillId="16" borderId="43"/>
-    <xf numFmtId="168" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="115" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="116" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
+    <xf numFmtId="193" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="115" fillId="16" borderId="43"/>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="116" fillId="0" borderId="0"/>
+    <xf numFmtId="194" fontId="117" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="28" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="28" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0"/>
-    <xf numFmtId="14" fontId="94" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0"/>
+    <xf numFmtId="14" fontId="95" fillId="0" borderId="0">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="39" fontId="118" fillId="18" borderId="43"/>
-    <xf numFmtId="195" fontId="47" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="119" fillId="19" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="10" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="39" fontId="119" fillId="18" borderId="43"/>
+    <xf numFmtId="195" fontId="48" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="120" fillId="19" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="120" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="121" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="197" fontId="121" fillId="13" borderId="45" applyBorder="0">
+    <xf numFmtId="197" fontId="122" fillId="13" borderId="45" applyBorder="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="1" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="120" fillId="1" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
-    <xf numFmtId="40" fontId="123" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
+    <xf numFmtId="40" fontId="124" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="43"/>
-    <xf numFmtId="0" fontId="124" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="125" fillId="12" borderId="1">
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="43"/>
+    <xf numFmtId="0" fontId="125" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="126" fillId="12" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="46"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="43"/>
-    <xf numFmtId="41" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="111" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="46"/>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="43"/>
+    <xf numFmtId="41" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="112" fillId="2" borderId="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="198" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="198" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="127" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="127" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="200" fontId="127" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="201" fontId="127" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="202" fontId="127" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="128" fillId="0" borderId="0"/>
+    <xf numFmtId="199" fontId="128" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="200" fontId="128" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="201" fontId="128" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="202" fontId="128" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="129" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="204" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="130" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="206" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="205" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="159" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="204" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="131" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="206" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="205" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="160" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="175" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="55" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="54" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="55" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="55" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="57" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="168" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="176" fontId="49" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="50" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="176" fontId="50" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -8639,60 +8714,66 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8708,30 +8789,30 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="71" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="70" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8741,67 +8822,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="51" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -8810,242 +8891,242 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="71" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="70" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="16" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="71" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="72" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="84" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="85" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="85" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="86" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="59" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="69" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="70" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9054,70 +9135,67 @@
     <xf numFmtId="15" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="145" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="145" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9132,91 +9210,113 @@
     <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="53" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="53" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="53" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="54" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="55" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="55" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="55" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="41" fontId="55" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="55" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="160" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="161" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="160" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="161" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="161" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="161" fillId="0" borderId="1" xfId="253" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="162" fillId="0" borderId="1" xfId="253" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="22" borderId="0" xfId="253" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="41" fontId="161" fillId="0" borderId="28" xfId="253" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="162" fillId="0" borderId="28" xfId="253" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="54" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="55" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="164" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="10" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9228,95 +9328,170 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="207" fontId="72" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="73" fillId="4" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="207" fontId="72" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="73" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="207" fontId="72" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="73" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="207" fontId="72" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="207" fontId="73" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9327,134 +9502,80 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="208" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9468,205 +9589,223 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="65" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="50" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="64" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="53" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="139" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9675,43 +9814,31 @@
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="138" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="73" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="156" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9723,82 +9850,29 @@
     <xf numFmtId="0" fontId="156" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="254">
@@ -47394,7 +47468,7 @@
   <sheetData>
     <row r="3" spans="3:12" ht="28.8">
       <c r="C3" s="269" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="269"/>
       <c r="E3" s="268"/>
@@ -47415,7 +47489,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="308" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -47429,7 +47503,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="309" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -47456,20 +47530,20 @@
         <v>4</v>
       </c>
       <c r="F8" s="309" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="3:12" ht="15.6">
       <c r="C9" s="88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="88" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="309" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G9" s="88" t="s">
         <v>68</v>
@@ -47496,7 +47570,7 @@
         <v>45644</v>
       </c>
       <c r="I10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J10" s="157">
         <v>7</v>
@@ -47511,10 +47585,10 @@
         <v>4</v>
       </c>
       <c r="F11" s="313" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G11" s="313" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H11" s="81"/>
       <c r="I11" s="81"/>
@@ -47528,13 +47602,13 @@
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="395" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="396"/>
-      <c r="H12" s="396"/>
-      <c r="I12" s="396"/>
-      <c r="J12" s="397"/>
+      <c r="F12" s="402" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="403"/>
+      <c r="H12" s="403"/>
+      <c r="I12" s="403"/>
+      <c r="J12" s="404"/>
     </row>
     <row r="13" spans="3:12" ht="15.6">
       <c r="C13" s="88" t="s">
@@ -47547,10 +47621,10 @@
       <c r="F13" s="184" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="398">
+      <c r="G13" s="405">
         <v>128.29454999999999</v>
       </c>
-      <c r="H13" s="399"/>
+      <c r="H13" s="406"/>
     </row>
     <row r="14" spans="3:12" ht="15.6">
       <c r="C14" s="2"/>
@@ -47559,10 +47633,10 @@
       <c r="F14" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="G14" s="400">
+      <c r="G14" s="407">
         <v>2.0508700000000002</v>
       </c>
-      <c r="H14" s="401"/>
+      <c r="H14" s="408"/>
     </row>
     <row r="15" spans="3:12" ht="15.6">
       <c r="C15" s="88" t="s">
@@ -47573,45 +47647,45 @@
         <v>4</v>
       </c>
       <c r="F15" s="309" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="3:12" ht="15.6">
       <c r="C16" s="88" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="88" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="309" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="3:8" ht="15.6">
       <c r="C17" s="88" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="88" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="309" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="3:8" ht="15.6">
       <c r="C18" s="88" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="575">
+      <c r="F18" s="394">
         <v>10575000</v>
       </c>
       <c r="G18" s="2"/>
@@ -47624,35 +47698,35 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="3:8" ht="15.6">
-      <c r="C20" s="402"/>
-      <c r="D20" s="403"/>
-      <c r="E20" s="403"/>
-      <c r="F20" s="404"/>
+      <c r="C20" s="409"/>
+      <c r="D20" s="410"/>
+      <c r="E20" s="410"/>
+      <c r="F20" s="411"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="3:8" ht="15.6">
-      <c r="C21" s="393" t="s">
-        <v>398</v>
-      </c>
-      <c r="D21" s="394"/>
+      <c r="C21" s="412" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="413"/>
       <c r="E21" s="262" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="263" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="3:8" ht="15.6">
-      <c r="C22" s="405" t="s">
-        <v>259</v>
-      </c>
-      <c r="D22" s="406"/>
+      <c r="C22" s="414" t="s">
+        <v>258</v>
+      </c>
+      <c r="D22" s="415"/>
       <c r="E22" s="262" t="s">
         <v>4</v>
       </c>
       <c r="F22" s="263" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -47664,101 +47738,95 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="3:8" ht="15.6">
-      <c r="C24" s="402" t="s">
-        <v>301</v>
-      </c>
-      <c r="D24" s="403"/>
-      <c r="E24" s="403"/>
-      <c r="F24" s="404"/>
+      <c r="C24" s="409" t="s">
+        <v>300</v>
+      </c>
+      <c r="D24" s="410"/>
+      <c r="E24" s="410"/>
+      <c r="F24" s="411"/>
       <c r="H24" s="316"/>
     </row>
     <row r="25" spans="3:8" ht="15.6">
-      <c r="C25" s="572" t="s">
-        <v>347</v>
-      </c>
-      <c r="D25" s="573"/>
+      <c r="C25" s="400" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" s="401"/>
       <c r="E25" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="574" t="s">
-        <v>401</v>
+      <c r="F25" s="393" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="15.6">
-      <c r="C26" s="572" t="s">
-        <v>402</v>
-      </c>
-      <c r="D26" s="573"/>
+      <c r="C26" s="400" t="s">
+        <v>399</v>
+      </c>
+      <c r="D26" s="401"/>
       <c r="E26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="574" t="s">
-        <v>403</v>
+      <c r="F26" s="393" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.6">
-      <c r="C27" s="572" t="s">
-        <v>404</v>
-      </c>
-      <c r="D27" s="573"/>
+      <c r="C27" s="400" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="401"/>
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="574" t="s">
-        <v>405</v>
+      <c r="F27" s="393" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.6">
-      <c r="C28" s="572" t="s">
-        <v>302</v>
-      </c>
-      <c r="D28" s="573"/>
+      <c r="C28" s="400" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" s="401"/>
       <c r="E28" s="262" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="574" t="s">
-        <v>381</v>
+      <c r="F28" s="393" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="576" t="s">
-        <v>410</v>
-      </c>
-      <c r="D30" s="576"/>
-      <c r="E30" s="576"/>
-      <c r="F30" s="576"/>
+      <c r="C30" s="399" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" s="399"/>
+      <c r="E30" s="399"/>
+      <c r="F30" s="399"/>
     </row>
     <row r="31" spans="3:8" ht="15.6">
-      <c r="C31" s="577" t="s">
-        <v>411</v>
-      </c>
-      <c r="D31" s="578"/>
-      <c r="E31" s="577" t="s">
+      <c r="C31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="580" t="s">
-        <v>386</v>
+      <c r="F31" s="396" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.6">
       <c r="C32" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="579"/>
+      <c r="D32" s="395"/>
       <c r="E32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="581" t="s">
-        <v>412</v>
+      <c r="F32" s="397" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="F12:J12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
@@ -47766,6 +47834,11 @@
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.33" right="0.27559055118110198" top="0.39370078740157499" bottom="0.37" header="0.31496062992126" footer="0.31496062992126"/>
@@ -47781,7 +47854,7 @@
   <dimension ref="A3:J58"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -47800,14 +47873,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="20.25" customHeight="1">
-      <c r="H3" s="583" t="s">
-        <v>416</v>
-      </c>
-      <c r="I3" s="584"/>
+      <c r="H3" s="463" t="s">
+        <v>413</v>
+      </c>
+      <c r="I3" s="465"/>
     </row>
     <row r="4" spans="1:10">
       <c r="H4" s="133" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -47938,7 +48011,7 @@
       <c r="G13" s="92"/>
       <c r="H13" s="92"/>
       <c r="I13" s="92" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -47960,22 +48033,22 @@
       <c r="I14" s="94"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="494"/>
+      <c r="A15" s="508"/>
       <c r="B15" s="253"/>
       <c r="C15" s="253"/>
-      <c r="D15" s="494" t="s">
+      <c r="D15" s="508" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="496" t="s">
+      <c r="E15" s="510" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="498" t="s">
+      <c r="F15" s="512" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="500" t="s">
+      <c r="G15" s="514" t="s">
         <v>121</v>
       </c>
-      <c r="H15" s="498" t="s">
+      <c r="H15" s="512" t="s">
         <v>171</v>
       </c>
       <c r="I15" s="95" t="s">
@@ -47984,14 +48057,14 @@
       <c r="J15" s="251"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A16" s="495"/>
+      <c r="A16" s="509"/>
       <c r="B16" s="254"/>
       <c r="C16" s="254"/>
-      <c r="D16" s="495"/>
-      <c r="E16" s="497"/>
-      <c r="F16" s="499"/>
-      <c r="G16" s="501"/>
-      <c r="H16" s="497"/>
+      <c r="D16" s="509"/>
+      <c r="E16" s="511"/>
+      <c r="F16" s="513"/>
+      <c r="G16" s="515"/>
+      <c r="H16" s="511"/>
       <c r="I16" s="96"/>
     </row>
     <row r="17" spans="1:10">
@@ -48120,8 +48193,8 @@
       <c r="I26" s="360"/>
     </row>
     <row r="27" spans="1:10" ht="15.6">
-      <c r="A27" s="491"/>
-      <c r="B27" s="491"/>
+      <c r="A27" s="505"/>
+      <c r="B27" s="505"/>
       <c r="C27" s="256"/>
       <c r="D27" s="256"/>
       <c r="E27" s="103"/>
@@ -48132,8 +48205,8 @@
       <c r="J27" s="185"/>
     </row>
     <row r="28" spans="1:10" ht="15.6">
-      <c r="A28" s="492"/>
-      <c r="B28" s="492"/>
+      <c r="A28" s="506"/>
+      <c r="B28" s="506"/>
       <c r="C28" s="257"/>
       <c r="D28" s="257"/>
       <c r="E28" s="105"/>
@@ -48167,10 +48240,10 @@
       <c r="D30" s="107"/>
       <c r="E30" s="196"/>
       <c r="F30" s="385" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G30" s="386" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H30" s="107"/>
       <c r="I30" s="107"/>
@@ -48252,13 +48325,13 @@
       </c>
       <c r="B37" s="153"/>
       <c r="C37" s="171"/>
-      <c r="E37" s="493" t="str">
+      <c r="E37" s="507" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="F37" s="493"/>
-      <c r="G37" s="493"/>
-      <c r="H37" s="493"/>
+      <c r="F37" s="507"/>
+      <c r="G37" s="507"/>
+      <c r="H37" s="507"/>
       <c r="I37" s="194"/>
       <c r="J37" s="194"/>
     </row>
@@ -48437,8 +48510,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -48453,24 +48526,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4">
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
+      <c r="E1" s="516"/>
+      <c r="F1" s="516"/>
     </row>
     <row r="2" spans="1:6" ht="14.4">
       <c r="E2" s="258"/>
-      <c r="F2" s="589" t="s">
-        <v>417</v>
+      <c r="F2" s="586" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4">
       <c r="E3" s="258"/>
-      <c r="F3" s="585" t="s">
-        <v>383</v>
+      <c r="F3" s="398" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.8">
       <c r="A4" s="90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
@@ -48603,7 +48676,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="137" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -49170,16 +49243,16 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:10" ht="32.25" customHeight="1">
-      <c r="C6" s="506" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" s="506"/>
-      <c r="E6" s="506"/>
-      <c r="F6" s="506"/>
-      <c r="G6" s="506"/>
-      <c r="H6" s="506"/>
-      <c r="I6" s="506"/>
-      <c r="J6" s="506"/>
+      <c r="C6" s="517" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" s="517"/>
+      <c r="E6" s="517"/>
+      <c r="F6" s="517"/>
+      <c r="G6" s="517"/>
+      <c r="H6" s="517"/>
+      <c r="I6" s="517"/>
+      <c r="J6" s="517"/>
     </row>
     <row r="8" spans="2:10" ht="15.6">
       <c r="B8" s="190" t="s">
@@ -49197,7 +49270,7 @@
     </row>
     <row r="9" spans="2:10" ht="15.6">
       <c r="B9" s="190" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="190"/>
       <c r="D9" s="141" t="s">
@@ -49239,7 +49312,7 @@
     </row>
     <row r="12" spans="2:10" ht="15.6">
       <c r="B12" s="190" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C12" s="190"/>
       <c r="D12" s="144" t="s">
@@ -49260,7 +49333,7 @@
     </row>
     <row r="14" spans="2:10" ht="15.6">
       <c r="B14" s="190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C14" s="190"/>
       <c r="D14" s="144"/>
@@ -49269,7 +49342,7 @@
     </row>
     <row r="15" spans="2:10" ht="15.6">
       <c r="B15" s="190" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="190"/>
       <c r="D15" s="144"/>
@@ -49285,27 +49358,27 @@
     </row>
     <row r="17" spans="2:10" ht="21" customHeight="1">
       <c r="B17" s="190" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="190"/>
       <c r="D17" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="190" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="153"/>
     </row>
     <row r="18" spans="2:10" ht="21" customHeight="1">
       <c r="B18" s="190" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" s="190"/>
       <c r="D18" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="144" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F18" s="153"/>
     </row>
@@ -49318,27 +49391,27 @@
     </row>
     <row r="20" spans="2:10" ht="20.25" customHeight="1">
       <c r="B20" s="190" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="190"/>
       <c r="D20" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="190" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" s="153"/>
     </row>
     <row r="21" spans="2:10" ht="20.25" customHeight="1">
       <c r="B21" s="190" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C21" s="190"/>
       <c r="D21" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="144" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F21" s="153"/>
     </row>
@@ -49357,19 +49430,19 @@
     </row>
     <row r="25" spans="2:10" ht="15.6">
       <c r="B25" s="190" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D25" s="144"/>
     </row>
     <row r="26" spans="2:10" ht="15.6">
       <c r="B26" s="190" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D26" s="144"/>
     </row>
     <row r="27" spans="2:10" ht="15.6">
       <c r="B27" s="190" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D27" s="144"/>
     </row>
@@ -49378,52 +49451,52 @@
       <c r="D28" s="144"/>
     </row>
     <row r="29" spans="2:10" ht="15.6">
-      <c r="B29" s="507" t="s">
+      <c r="B29" s="518" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="518" t="s">
         <v>235</v>
       </c>
-      <c r="C29" s="507" t="s">
+      <c r="D29" s="520"/>
+      <c r="E29" s="521"/>
+      <c r="F29" s="524" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="526" t="s">
         <v>236</v>
       </c>
-      <c r="D29" s="509"/>
-      <c r="E29" s="510"/>
-      <c r="F29" s="513" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" s="515" t="s">
+      <c r="H29" s="527"/>
+      <c r="I29" s="528" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="516"/>
-      <c r="I29" s="517" t="s">
+      <c r="J29" s="524" t="s">
         <v>238</v>
       </c>
-      <c r="J29" s="513" t="s">
+    </row>
+    <row r="30" spans="2:10" ht="15.6">
+      <c r="B30" s="519"/>
+      <c r="C30" s="519"/>
+      <c r="D30" s="522"/>
+      <c r="E30" s="523"/>
+      <c r="F30" s="525"/>
+      <c r="G30" s="294" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="30" spans="2:10" ht="15.6">
-      <c r="B30" s="508"/>
-      <c r="C30" s="508"/>
-      <c r="D30" s="511"/>
-      <c r="E30" s="512"/>
-      <c r="F30" s="514"/>
-      <c r="G30" s="294" t="s">
+      <c r="H30" s="294" t="s">
         <v>240</v>
       </c>
-      <c r="H30" s="294" t="s">
-        <v>241</v>
-      </c>
-      <c r="I30" s="518"/>
-      <c r="J30" s="514"/>
+      <c r="I30" s="529"/>
+      <c r="J30" s="525"/>
     </row>
     <row r="31" spans="2:10" ht="15.6">
       <c r="B31" s="295" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="503" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="504"/>
-      <c r="E31" s="505"/>
+        <v>241</v>
+      </c>
+      <c r="C31" s="530" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="531"/>
+      <c r="E31" s="532"/>
       <c r="F31" s="298" t="s">
         <v>161</v>
       </c>
@@ -49438,13 +49511,13 @@
     </row>
     <row r="32" spans="2:10" ht="15.6">
       <c r="B32" s="295" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="503" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="504"/>
-      <c r="E32" s="505"/>
+        <v>242</v>
+      </c>
+      <c r="C32" s="530" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="531"/>
+      <c r="E32" s="532"/>
       <c r="F32" s="298" t="s">
         <v>161</v>
       </c>
@@ -49459,15 +49532,15 @@
     </row>
     <row r="33" spans="2:10" ht="15.6">
       <c r="B33" s="295" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="503" t="s">
-        <v>250</v>
-      </c>
-      <c r="D33" s="504"/>
-      <c r="E33" s="505"/>
+        <v>243</v>
+      </c>
+      <c r="C33" s="530" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="531"/>
+      <c r="E33" s="532"/>
       <c r="F33" s="298" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G33" s="299">
         <v>1</v>
@@ -49480,13 +49553,13 @@
     </row>
     <row r="34" spans="2:10" ht="15.6">
       <c r="B34" s="295" t="s">
-        <v>245</v>
-      </c>
-      <c r="C34" s="503" t="s">
-        <v>251</v>
-      </c>
-      <c r="D34" s="504"/>
-      <c r="E34" s="505"/>
+        <v>244</v>
+      </c>
+      <c r="C34" s="530" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="531"/>
+      <c r="E34" s="532"/>
       <c r="F34" s="298" t="s">
         <v>161</v>
       </c>
@@ -49523,9 +49596,9 @@
     </row>
     <row r="37" spans="2:10" ht="15.6">
       <c r="B37" s="301"/>
-      <c r="C37" s="503"/>
-      <c r="D37" s="504"/>
-      <c r="E37" s="505"/>
+      <c r="C37" s="530"/>
+      <c r="D37" s="531"/>
+      <c r="E37" s="532"/>
       <c r="F37" s="302"/>
       <c r="G37" s="303"/>
       <c r="H37" s="303"/>
@@ -49534,12 +49607,12 @@
     </row>
     <row r="39" spans="2:10">
       <c r="B39" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -49557,31 +49630,36 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="306" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C49" s="306"/>
       <c r="D49" s="306"/>
       <c r="E49" s="306"/>
       <c r="F49" s="306"/>
       <c r="G49" s="306" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I49" s="305"/>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="141" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C50" s="141"/>
       <c r="D50" s="141"/>
       <c r="E50" s="141"/>
       <c r="F50" s="141"/>
       <c r="G50" s="141" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:E30"/>
@@ -49589,11 +49667,6 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:J30"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
   </mergeCells>
   <pageMargins left="0.82677165354330717" right="0.27559055118110237" top="0.49" bottom="0.46" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="1200" r:id="rId1"/>
@@ -49616,32 +49689,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.6">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="533" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="519"/>
-      <c r="G1" s="519"/>
-      <c r="H1" s="519"/>
-      <c r="I1" s="519"/>
-      <c r="J1" s="519"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
     </row>
     <row r="2" spans="1:10" ht="40.799999999999997">
-      <c r="A2" s="520" t="s">
+      <c r="A2" s="534" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="520"/>
-      <c r="C2" s="520"/>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520"/>
-      <c r="H2" s="520"/>
-      <c r="I2" s="520"/>
-      <c r="J2" s="520"/>
+      <c r="B2" s="534"/>
+      <c r="C2" s="534"/>
+      <c r="D2" s="534"/>
+      <c r="E2" s="534"/>
+      <c r="F2" s="534"/>
+      <c r="G2" s="534"/>
+      <c r="H2" s="534"/>
+      <c r="I2" s="534"/>
+      <c r="J2" s="534"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="142"/>
@@ -49682,24 +49755,24 @@
       <c r="D5" s="141"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="521" t="s">
+      <c r="B23" s="535" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="522"/>
-      <c r="D23" s="522"/>
-      <c r="E23" s="522"/>
-      <c r="F23" s="522"/>
-      <c r="G23" s="522"/>
-      <c r="H23" s="522"/>
+      <c r="C23" s="399"/>
+      <c r="D23" s="399"/>
+      <c r="E23" s="399"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="399"/>
+      <c r="H23" s="399"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="522"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="522"/>
-      <c r="F44" s="522"/>
-      <c r="G44" s="522"/>
-      <c r="H44" s="522"/>
+      <c r="B44" s="399"/>
+      <c r="C44" s="399"/>
+      <c r="D44" s="399"/>
+      <c r="E44" s="399"/>
+      <c r="F44" s="399"/>
+      <c r="G44" s="399"/>
+      <c r="H44" s="399"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -49729,32 +49802,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.6">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="533" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="519"/>
-      <c r="G1" s="519"/>
-      <c r="H1" s="519"/>
-      <c r="I1" s="519"/>
-      <c r="J1" s="519"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
     </row>
     <row r="2" spans="1:10" ht="40.799999999999997">
-      <c r="A2" s="520" t="s">
+      <c r="A2" s="534" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="520"/>
-      <c r="C2" s="520"/>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520"/>
-      <c r="H2" s="520"/>
-      <c r="I2" s="520"/>
-      <c r="J2" s="520"/>
+      <c r="B2" s="534"/>
+      <c r="C2" s="534"/>
+      <c r="D2" s="534"/>
+      <c r="E2" s="534"/>
+      <c r="F2" s="534"/>
+      <c r="G2" s="534"/>
+      <c r="H2" s="534"/>
+      <c r="I2" s="534"/>
+      <c r="J2" s="534"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="142"/>
@@ -49795,24 +49868,24 @@
       <c r="D5" s="141"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="521" t="s">
+      <c r="B23" s="535" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="522"/>
-      <c r="D23" s="522"/>
-      <c r="E23" s="522"/>
-      <c r="F23" s="522"/>
-      <c r="G23" s="522"/>
-      <c r="H23" s="522"/>
+      <c r="C23" s="399"/>
+      <c r="D23" s="399"/>
+      <c r="E23" s="399"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="399"/>
+      <c r="H23" s="399"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="522"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="522"/>
-      <c r="F44" s="522"/>
-      <c r="G44" s="522"/>
-      <c r="H44" s="522"/>
+      <c r="B44" s="399"/>
+      <c r="C44" s="399"/>
+      <c r="D44" s="399"/>
+      <c r="E44" s="399"/>
+      <c r="F44" s="399"/>
+      <c r="G44" s="399"/>
+      <c r="H44" s="399"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -49842,32 +49915,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.6">
-      <c r="A1" s="519" t="s">
+      <c r="A1" s="533" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="519"/>
-      <c r="G1" s="519"/>
-      <c r="H1" s="519"/>
-      <c r="I1" s="519"/>
-      <c r="J1" s="519"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="533"/>
+      <c r="F1" s="533"/>
+      <c r="G1" s="533"/>
+      <c r="H1" s="533"/>
+      <c r="I1" s="533"/>
+      <c r="J1" s="533"/>
     </row>
     <row r="2" spans="1:10" ht="40.799999999999997">
-      <c r="A2" s="520" t="s">
+      <c r="A2" s="534" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="520"/>
-      <c r="C2" s="520"/>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520"/>
-      <c r="H2" s="520"/>
-      <c r="I2" s="520"/>
-      <c r="J2" s="520"/>
+      <c r="B2" s="534"/>
+      <c r="C2" s="534"/>
+      <c r="D2" s="534"/>
+      <c r="E2" s="534"/>
+      <c r="F2" s="534"/>
+      <c r="G2" s="534"/>
+      <c r="H2" s="534"/>
+      <c r="I2" s="534"/>
+      <c r="J2" s="534"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="142"/>
@@ -49908,24 +49981,24 @@
       <c r="D5" s="141"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="521" t="s">
+      <c r="B23" s="535" t="s">
         <v>120</v>
       </c>
-      <c r="C23" s="522"/>
-      <c r="D23" s="522"/>
-      <c r="E23" s="522"/>
-      <c r="F23" s="522"/>
-      <c r="G23" s="522"/>
-      <c r="H23" s="522"/>
+      <c r="C23" s="399"/>
+      <c r="D23" s="399"/>
+      <c r="E23" s="399"/>
+      <c r="F23" s="399"/>
+      <c r="G23" s="399"/>
+      <c r="H23" s="399"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="522"/>
-      <c r="C44" s="522"/>
-      <c r="D44" s="522"/>
-      <c r="E44" s="522"/>
-      <c r="F44" s="522"/>
-      <c r="G44" s="522"/>
-      <c r="H44" s="522"/>
+      <c r="B44" s="399"/>
+      <c r="C44" s="399"/>
+      <c r="D44" s="399"/>
+      <c r="E44" s="399"/>
+      <c r="F44" s="399"/>
+      <c r="G44" s="399"/>
+      <c r="H44" s="399"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -49967,33 +50040,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="23.4">
-      <c r="A2" s="525" t="s">
+      <c r="A2" s="541" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="525"/>
-      <c r="C2" s="525"/>
-      <c r="D2" s="525"/>
-      <c r="E2" s="525"/>
-      <c r="F2" s="525"/>
-      <c r="G2" s="525"/>
-      <c r="H2" s="525"/>
-      <c r="I2" s="525"/>
-      <c r="J2" s="525"/>
+      <c r="B2" s="541"/>
+      <c r="C2" s="541"/>
+      <c r="D2" s="541"/>
+      <c r="E2" s="541"/>
+      <c r="F2" s="541"/>
+      <c r="G2" s="541"/>
+      <c r="H2" s="541"/>
+      <c r="I2" s="541"/>
+      <c r="J2" s="541"/>
       <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="23.4">
-      <c r="A3" s="526" t="s">
+      <c r="A3" s="542" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526"/>
-      <c r="D3" s="526"/>
-      <c r="E3" s="526"/>
-      <c r="F3" s="526"/>
-      <c r="G3" s="526"/>
-      <c r="H3" s="526"/>
-      <c r="I3" s="526"/>
-      <c r="J3" s="526"/>
+      <c r="B3" s="542"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="542"/>
+      <c r="F3" s="542"/>
+      <c r="G3" s="542"/>
+      <c r="H3" s="542"/>
+      <c r="I3" s="542"/>
+      <c r="J3" s="542"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="11.25" customHeight="1">
@@ -50004,7 +50077,7 @@
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="129" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="83"/>
       <c r="C7" s="83"/>
@@ -50018,7 +50091,7 @@
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="83" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
@@ -50112,12 +50185,12 @@
       <c r="C14" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="529">
+      <c r="D14" s="544">
         <f>MASTER!F10</f>
         <v>4100118118</v>
       </c>
-      <c r="E14" s="529"/>
-      <c r="F14" s="529"/>
+      <c r="E14" s="544"/>
+      <c r="F14" s="544"/>
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
@@ -50304,22 +50377,22 @@
       <c r="J27" s="83"/>
     </row>
     <row r="30" spans="1:11" ht="17.399999999999999">
-      <c r="A30" s="523" t="str">
+      <c r="A30" s="540" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="B30" s="523"/>
-      <c r="C30" s="523"/>
-      <c r="D30" s="523"/>
-      <c r="E30" s="523"/>
-      <c r="F30" s="523"/>
-      <c r="G30" s="523"/>
+      <c r="B30" s="540"/>
+      <c r="C30" s="540"/>
+      <c r="D30" s="540"/>
+      <c r="E30" s="540"/>
+      <c r="F30" s="540"/>
+      <c r="G30" s="540"/>
       <c r="H30" s="86"/>
-      <c r="I30" s="523" t="str">
+      <c r="I30" s="540" t="str">
         <f>MASTER!F17</f>
         <v>PT ATMAJAYA ARTHA PERKASA</v>
       </c>
-      <c r="J30" s="523"/>
+      <c r="J30" s="540"/>
       <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" ht="17.399999999999999">
@@ -50383,40 +50456,40 @@
       <c r="J35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.6">
-      <c r="A36" s="527" t="str">
+      <c r="A36" s="543" t="str">
         <f>MASTER!F28</f>
         <v>Eko Budianto</v>
       </c>
-      <c r="B36" s="528"/>
-      <c r="C36" s="528"/>
-      <c r="D36" s="528"/>
-      <c r="E36" s="528"/>
-      <c r="F36" s="528"/>
-      <c r="G36" s="528"/>
+      <c r="B36" s="536"/>
+      <c r="C36" s="536"/>
+      <c r="D36" s="536"/>
+      <c r="E36" s="536"/>
+      <c r="F36" s="536"/>
+      <c r="G36" s="536"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="527" t="str">
+      <c r="I36" s="543" t="str">
         <f>MASTER!F22</f>
         <v>Fajar Dermawan</v>
       </c>
-      <c r="J36" s="528"/>
+      <c r="J36" s="536"/>
       <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:14" ht="15.6">
-      <c r="A37" s="530" t="str">
+      <c r="A37" s="537" t="str">
         <f>MASTER!C28</f>
         <v>Waspang Area Jawa Barat</v>
       </c>
-      <c r="B37" s="530"/>
-      <c r="C37" s="530"/>
-      <c r="D37" s="530"/>
-      <c r="E37" s="530"/>
-      <c r="F37" s="530"/>
-      <c r="G37" s="530"/>
+      <c r="B37" s="537"/>
+      <c r="C37" s="537"/>
+      <c r="D37" s="537"/>
+      <c r="E37" s="537"/>
+      <c r="F37" s="537"/>
+      <c r="G37" s="537"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="524" t="s">
-        <v>259</v>
-      </c>
-      <c r="J37" s="524"/>
+      <c r="I37" s="539" t="s">
+        <v>258</v>
+      </c>
+      <c r="J37" s="539"/>
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:14" ht="17.399999999999999">
@@ -50447,13 +50520,13 @@
       <c r="B40" s="85"/>
       <c r="C40" s="85"/>
       <c r="E40" s="86"/>
-      <c r="F40" s="523" t="str">
+      <c r="F40" s="540" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="G40" s="523"/>
-      <c r="H40" s="523"/>
-      <c r="I40" s="523"/>
+      <c r="G40" s="540"/>
+      <c r="H40" s="540"/>
+      <c r="I40" s="540"/>
       <c r="J40" s="86"/>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
@@ -50468,12 +50541,12 @@
       <c r="H41" s="86"/>
       <c r="I41" s="86"/>
       <c r="J41" s="86"/>
-      <c r="K41" s="523" t="s">
+      <c r="K41" s="540" t="s">
         <v>12</v>
       </c>
-      <c r="L41" s="523"/>
-      <c r="M41" s="523"/>
-      <c r="N41" s="523"/>
+      <c r="L41" s="540"/>
+      <c r="M41" s="540"/>
+      <c r="N41" s="540"/>
     </row>
     <row r="42" spans="1:14" ht="17.399999999999999">
       <c r="A42" s="86"/>
@@ -50540,20 +50613,20 @@
       <c r="B46" s="86"/>
       <c r="C46" s="86"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="528" t="str">
+      <c r="F46" s="536" t="str">
         <f>MASTER!F27</f>
         <v>Hanafi Nur Arifin</v>
       </c>
-      <c r="G46" s="528"/>
-      <c r="H46" s="528"/>
-      <c r="I46" s="528"/>
+      <c r="G46" s="536"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="536"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="481" t="s">
+      <c r="K46" s="486" t="s">
         <v>188</v>
       </c>
-      <c r="L46" s="481"/>
-      <c r="M46" s="481"/>
-      <c r="N46" s="481"/>
+      <c r="L46" s="486"/>
+      <c r="M46" s="486"/>
+      <c r="N46" s="486"/>
     </row>
     <row r="47" spans="1:14" ht="17.399999999999999">
       <c r="A47" s="130"/>
@@ -50561,28 +50634,23 @@
       <c r="C47" s="86"/>
       <c r="D47" s="86"/>
       <c r="E47" s="86"/>
-      <c r="F47" s="530" t="str">
+      <c r="F47" s="537" t="str">
         <f>MASTER!C27</f>
         <v>Asman Asset Sulawesi &amp; Malut</v>
       </c>
-      <c r="G47" s="531"/>
-      <c r="H47" s="531"/>
-      <c r="I47" s="531"/>
+      <c r="G47" s="538"/>
+      <c r="H47" s="538"/>
+      <c r="I47" s="538"/>
       <c r="J47" s="86"/>
-      <c r="K47" s="524" t="s">
+      <c r="K47" s="539" t="s">
         <v>177</v>
       </c>
-      <c r="L47" s="524"/>
-      <c r="M47" s="524"/>
-      <c r="N47" s="524"/>
+      <c r="L47" s="539"/>
+      <c r="M47" s="539"/>
+      <c r="N47" s="539"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K41:N41"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="A2:J2"/>
@@ -50593,6 +50661,11 @@
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:G37"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K41:N41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -50628,40 +50701,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="18" customHeight="1">
-      <c r="A2" s="526" t="s">
+      <c r="A2" s="542" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="526"/>
-      <c r="C2" s="526"/>
-      <c r="D2" s="526"/>
-      <c r="E2" s="526"/>
-      <c r="F2" s="526"/>
-      <c r="G2" s="526"/>
-      <c r="H2" s="526"/>
-      <c r="I2" s="526"/>
-      <c r="J2" s="526"/>
-      <c r="K2" s="526"/>
-      <c r="L2" s="526"/>
-      <c r="M2" s="526"/>
+      <c r="B2" s="542"/>
+      <c r="C2" s="542"/>
+      <c r="D2" s="542"/>
+      <c r="E2" s="542"/>
+      <c r="F2" s="542"/>
+      <c r="G2" s="542"/>
+      <c r="H2" s="542"/>
+      <c r="I2" s="542"/>
+      <c r="J2" s="542"/>
+      <c r="K2" s="542"/>
+      <c r="L2" s="542"/>
+      <c r="M2" s="542"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1">
-      <c r="A3" s="526" t="s">
+      <c r="A3" s="542" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="526"/>
-      <c r="C3" s="526"/>
-      <c r="D3" s="526"/>
-      <c r="E3" s="526"/>
-      <c r="F3" s="526"/>
-      <c r="G3" s="526"/>
-      <c r="H3" s="526"/>
-      <c r="I3" s="526"/>
-      <c r="J3" s="526"/>
-      <c r="K3" s="526"/>
-      <c r="L3" s="526"/>
-      <c r="M3" s="526"/>
+      <c r="B3" s="542"/>
+      <c r="C3" s="542"/>
+      <c r="D3" s="542"/>
+      <c r="E3" s="542"/>
+      <c r="F3" s="542"/>
+      <c r="G3" s="542"/>
+      <c r="H3" s="542"/>
+      <c r="I3" s="542"/>
+      <c r="J3" s="542"/>
+      <c r="K3" s="542"/>
+      <c r="L3" s="542"/>
+      <c r="M3" s="542"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
     </row>
@@ -50687,7 +50760,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="183" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
@@ -50747,13 +50820,13 @@
       <c r="D13" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="533">
+      <c r="E13" s="546">
         <f>MASTER!F10</f>
         <v>4100118118</v>
       </c>
-      <c r="F13" s="533"/>
-      <c r="G13" s="533"/>
-      <c r="H13" s="533"/>
+      <c r="F13" s="546"/>
+      <c r="G13" s="546"/>
+      <c r="H13" s="546"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="2" t="s">
@@ -50819,60 +50892,60 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1">
-      <c r="A29" s="532" t="str">
+      <c r="A29" s="545" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="B29" s="532"/>
-      <c r="C29" s="532"/>
-      <c r="D29" s="532"/>
-      <c r="E29" s="532"/>
-      <c r="F29" s="532"/>
-      <c r="G29" s="532"/>
-      <c r="H29" s="532"/>
-      <c r="L29" s="532" t="str">
+      <c r="B29" s="545"/>
+      <c r="C29" s="545"/>
+      <c r="D29" s="545"/>
+      <c r="E29" s="545"/>
+      <c r="F29" s="545"/>
+      <c r="G29" s="545"/>
+      <c r="H29" s="545"/>
+      <c r="L29" s="545" t="str">
         <f>MASTER!F17</f>
         <v>PT ATMAJAYA ARTHA PERKASA</v>
       </c>
-      <c r="M29" s="532"/>
+      <c r="M29" s="545"/>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1"/>
     <row r="34" spans="1:17" ht="15" customHeight="1"/>
     <row r="35" spans="1:17" ht="15" customHeight="1">
-      <c r="A35" s="527" t="str">
+      <c r="A35" s="543" t="str">
         <f>MASTER!F28</f>
         <v>Eko Budianto</v>
       </c>
-      <c r="B35" s="528"/>
-      <c r="C35" s="528"/>
-      <c r="D35" s="528"/>
-      <c r="E35" s="528"/>
-      <c r="F35" s="528"/>
-      <c r="G35" s="528"/>
-      <c r="H35" s="528"/>
-      <c r="L35" s="527" t="str">
+      <c r="B35" s="536"/>
+      <c r="C35" s="536"/>
+      <c r="D35" s="536"/>
+      <c r="E35" s="536"/>
+      <c r="F35" s="536"/>
+      <c r="G35" s="536"/>
+      <c r="H35" s="536"/>
+      <c r="L35" s="543" t="str">
         <f>MASTER!F22</f>
         <v>Fajar Dermawan</v>
       </c>
-      <c r="M35" s="528"/>
+      <c r="M35" s="536"/>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
-      <c r="A36" s="530" t="str">
+      <c r="A36" s="537" t="str">
         <f>MASTER!C28</f>
         <v>Waspang Area Jawa Barat</v>
       </c>
-      <c r="B36" s="530"/>
-      <c r="C36" s="530"/>
-      <c r="D36" s="530"/>
-      <c r="E36" s="530"/>
-      <c r="F36" s="530"/>
-      <c r="G36" s="530"/>
-      <c r="H36" s="530"/>
-      <c r="L36" s="530" t="str">
+      <c r="B36" s="537"/>
+      <c r="C36" s="537"/>
+      <c r="D36" s="537"/>
+      <c r="E36" s="537"/>
+      <c r="F36" s="537"/>
+      <c r="G36" s="537"/>
+      <c r="H36" s="537"/>
+      <c r="L36" s="537" t="str">
         <f>MASTER!C22</f>
         <v>Project Manager</v>
       </c>
-      <c r="M36" s="530"/>
+      <c r="M36" s="537"/>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="186"/>
@@ -50895,13 +50968,13 @@
       <c r="E39" s="190"/>
       <c r="F39" s="190"/>
       <c r="G39" s="190"/>
-      <c r="H39" s="532" t="str">
+      <c r="H39" s="545" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="I39" s="532"/>
-      <c r="J39" s="532"/>
-      <c r="K39" s="532"/>
+      <c r="I39" s="545"/>
+      <c r="J39" s="545"/>
+      <c r="K39" s="545"/>
       <c r="M39" s="186"/>
       <c r="N39" s="7"/>
     </row>
@@ -50909,12 +50982,12 @@
       <c r="B40" s="190"/>
       <c r="L40" s="190"/>
       <c r="M40" s="190"/>
-      <c r="N40" s="532" t="s">
+      <c r="N40" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="O40" s="532"/>
-      <c r="P40" s="532"/>
-      <c r="Q40" s="532"/>
+      <c r="O40" s="545"/>
+      <c r="P40" s="545"/>
+      <c r="Q40" s="545"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1">
       <c r="A45" s="13"/>
@@ -50923,51 +50996,45 @@
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="528" t="str">
+      <c r="H45" s="536" t="str">
         <f>MASTER!F27</f>
         <v>Hanafi Nur Arifin</v>
       </c>
-      <c r="I45" s="528"/>
-      <c r="J45" s="528"/>
-      <c r="K45" s="528"/>
+      <c r="I45" s="536"/>
+      <c r="J45" s="536"/>
+      <c r="K45" s="536"/>
       <c r="L45" s="13"/>
       <c r="M45" s="13"/>
-      <c r="N45" s="481" t="s">
+      <c r="N45" s="486" t="s">
         <v>188</v>
       </c>
-      <c r="O45" s="481"/>
-      <c r="P45" s="481"/>
-      <c r="Q45" s="481"/>
+      <c r="O45" s="486"/>
+      <c r="P45" s="486"/>
+      <c r="Q45" s="486"/>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1">
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="530" t="str">
+      <c r="H46" s="537" t="str">
         <f>MASTER!C27</f>
         <v>Asman Asset Sulawesi &amp; Malut</v>
       </c>
-      <c r="I46" s="531"/>
-      <c r="J46" s="531"/>
-      <c r="K46" s="531"/>
+      <c r="I46" s="538"/>
+      <c r="J46" s="538"/>
+      <c r="K46" s="538"/>
       <c r="L46" s="88"/>
       <c r="M46" s="88"/>
-      <c r="N46" s="524" t="s">
+      <c r="N46" s="539" t="s">
         <v>177</v>
       </c>
-      <c r="O46" s="524"/>
-      <c r="P46" s="524"/>
-      <c r="Q46" s="524"/>
+      <c r="O46" s="539"/>
+      <c r="P46" s="539"/>
+      <c r="Q46" s="539"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="N45:Q45"/>
-    <mergeCell ref="N46:Q46"/>
-    <mergeCell ref="N40:Q40"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="L29:M29"/>
@@ -50977,6 +51044,12 @@
     <mergeCell ref="A29:H29"/>
     <mergeCell ref="A35:H35"/>
     <mergeCell ref="A36:H36"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="N45:Q45"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="N40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -51004,51 +51077,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="25.8">
-      <c r="A3" s="534" t="s">
+      <c r="A3" s="547" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="534"/>
-      <c r="C3" s="534"/>
-      <c r="D3" s="534"/>
-      <c r="E3" s="534"/>
-      <c r="F3" s="534"/>
-      <c r="G3" s="534"/>
-      <c r="H3" s="534"/>
-      <c r="I3" s="534"/>
-      <c r="J3" s="534"/>
+      <c r="B3" s="547"/>
+      <c r="C3" s="547"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="547"/>
+      <c r="F3" s="547"/>
+      <c r="G3" s="547"/>
+      <c r="H3" s="547"/>
+      <c r="I3" s="547"/>
+      <c r="J3" s="547"/>
       <c r="K3" s="177"/>
     </row>
     <row r="4" spans="1:11" ht="25.8">
-      <c r="A4" s="535" t="s">
+      <c r="A4" s="548" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="535"/>
-      <c r="C4" s="535"/>
-      <c r="D4" s="535"/>
-      <c r="E4" s="535"/>
-      <c r="F4" s="535"/>
-      <c r="G4" s="535"/>
-      <c r="H4" s="535"/>
-      <c r="I4" s="535"/>
-      <c r="J4" s="535"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="548"/>
+      <c r="D4" s="548"/>
+      <c r="E4" s="548"/>
+      <c r="F4" s="548"/>
+      <c r="G4" s="548"/>
+      <c r="H4" s="548"/>
+      <c r="I4" s="548"/>
+      <c r="J4" s="548"/>
       <c r="K4" s="177"/>
     </row>
     <row r="5" spans="1:11" ht="18">
-      <c r="A5" s="537"/>
-      <c r="B5" s="537"/>
-      <c r="C5" s="537"/>
-      <c r="D5" s="537"/>
-      <c r="E5" s="537"/>
-      <c r="F5" s="537"/>
-      <c r="G5" s="537"/>
-      <c r="H5" s="537"/>
-      <c r="I5" s="537"/>
-      <c r="J5" s="537"/>
-      <c r="K5" s="537"/>
+      <c r="A5" s="550"/>
+      <c r="B5" s="550"/>
+      <c r="C5" s="550"/>
+      <c r="D5" s="550"/>
+      <c r="E5" s="550"/>
+      <c r="F5" s="550"/>
+      <c r="G5" s="550"/>
+      <c r="H5" s="550"/>
+      <c r="I5" s="550"/>
+      <c r="J5" s="550"/>
+      <c r="K5" s="550"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -51105,11 +51178,11 @@
       <c r="B13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="538">
+      <c r="C13" s="551">
         <f>MASTER!F10</f>
         <v>4100118118</v>
       </c>
-      <c r="D13" s="538"/>
+      <c r="D13" s="551"/>
     </row>
     <row r="14" spans="1:11" ht="15.6">
       <c r="A14" t="s">
@@ -51165,55 +51238,55 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="539" t="str">
+      <c r="A28" s="552" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="B28" s="539"/>
-      <c r="C28" s="539"/>
-      <c r="D28" s="539"/>
-      <c r="G28" s="539" t="str">
+      <c r="B28" s="552"/>
+      <c r="C28" s="552"/>
+      <c r="D28" s="552"/>
+      <c r="G28" s="552" t="str">
         <f>MASTER!F17</f>
         <v>PT ATMAJAYA ARTHA PERKASA</v>
       </c>
-      <c r="H28" s="539"/>
-      <c r="I28" s="539"/>
-      <c r="J28" s="539"/>
+      <c r="H28" s="552"/>
+      <c r="I28" s="552"/>
+      <c r="J28" s="552"/>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="540" t="str">
+      <c r="A33" s="553" t="str">
         <f>MASTER!F28</f>
         <v>Eko Budianto</v>
       </c>
-      <c r="B33" s="541"/>
-      <c r="C33" s="541"/>
-      <c r="D33" s="541"/>
-      <c r="G33" s="540" t="str">
+      <c r="B33" s="554"/>
+      <c r="C33" s="554"/>
+      <c r="D33" s="554"/>
+      <c r="G33" s="553" t="str">
         <f>MASTER!F22</f>
         <v>Fajar Dermawan</v>
       </c>
-      <c r="H33" s="541" t="s">
-        <v>205</v>
-      </c>
-      <c r="I33" s="541"/>
-      <c r="J33" s="541"/>
+      <c r="H33" s="554" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="554"/>
+      <c r="J33" s="554"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="542" t="str">
+      <c r="A34" s="555" t="str">
         <f>MASTER!C28</f>
         <v>Waspang Area Jawa Barat</v>
       </c>
-      <c r="B34" s="543"/>
-      <c r="C34" s="543"/>
-      <c r="D34" s="543"/>
+      <c r="B34" s="556"/>
+      <c r="C34" s="556"/>
+      <c r="D34" s="556"/>
       <c r="E34" s="201"/>
-      <c r="G34" s="530" t="str">
+      <c r="G34" s="537" t="str">
         <f>MASTER!C22</f>
         <v>Project Manager</v>
       </c>
-      <c r="H34" s="531"/>
-      <c r="I34" s="531"/>
-      <c r="J34" s="531"/>
+      <c r="H34" s="538"/>
+      <c r="I34" s="538"/>
+      <c r="J34" s="538"/>
     </row>
     <row r="35" spans="1:14">
       <c r="E35" s="6"/>
@@ -51226,13 +51299,13 @@
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="D37" s="539" t="str">
+      <c r="D37" s="552" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="E37" s="539"/>
-      <c r="F37" s="539"/>
-      <c r="G37" s="539"/>
+      <c r="E37" s="552"/>
+      <c r="F37" s="552"/>
+      <c r="G37" s="552"/>
       <c r="L37" s="173"/>
       <c r="M37" s="202" t="s">
         <v>102</v>
@@ -51251,27 +51324,27 @@
       <c r="M41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="15.6">
-      <c r="D42" s="541" t="str">
+      <c r="D42" s="554" t="str">
         <f>MASTER!F27</f>
         <v>Hanafi Nur Arifin</v>
       </c>
-      <c r="E42" s="541"/>
-      <c r="F42" s="541"/>
-      <c r="G42" s="541"/>
-      <c r="L42" s="536" t="s">
+      <c r="E42" s="554"/>
+      <c r="F42" s="554"/>
+      <c r="G42" s="554"/>
+      <c r="L42" s="549" t="s">
         <v>188</v>
       </c>
-      <c r="M42" s="536"/>
-      <c r="N42" s="536"/>
+      <c r="M42" s="549"/>
+      <c r="N42" s="549"/>
     </row>
     <row r="43" spans="1:14">
-      <c r="D43" s="530" t="str">
+      <c r="D43" s="537" t="str">
         <f>MASTER!C27</f>
         <v>Asman Asset Sulawesi &amp; Malut</v>
       </c>
-      <c r="E43" s="531"/>
-      <c r="F43" s="531"/>
-      <c r="G43" s="531"/>
+      <c r="E43" s="538"/>
+      <c r="F43" s="538"/>
+      <c r="G43" s="538"/>
       <c r="L43" s="220" t="s">
         <v>177</v>
       </c>
@@ -51331,32 +51404,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="23.4">
-      <c r="A2" s="544" t="s">
+      <c r="A2" s="565" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="544"/>
-      <c r="C2" s="544"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="544"/>
-      <c r="F2" s="544"/>
-      <c r="G2" s="544"/>
-      <c r="H2" s="544"/>
-      <c r="I2" s="544"/>
+      <c r="B2" s="565"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="565"/>
+      <c r="E2" s="565"/>
+      <c r="F2" s="565"/>
+      <c r="G2" s="565"/>
+      <c r="H2" s="565"/>
+      <c r="I2" s="565"/>
       <c r="J2" s="324"/>
       <c r="K2" s="324"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="545" t="s">
+      <c r="A3" s="566" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="545"/>
-      <c r="C3" s="545"/>
-      <c r="D3" s="545"/>
-      <c r="E3" s="545"/>
-      <c r="F3" s="545"/>
-      <c r="G3" s="545"/>
-      <c r="H3" s="545"/>
-      <c r="I3" s="545"/>
+      <c r="B3" s="566"/>
+      <c r="C3" s="566"/>
+      <c r="D3" s="566"/>
+      <c r="E3" s="566"/>
+      <c r="F3" s="566"/>
+      <c r="G3" s="566"/>
+      <c r="H3" s="566"/>
+      <c r="I3" s="566"/>
       <c r="J3" s="325"/>
       <c r="K3" s="325"/>
     </row>
@@ -51372,7 +51445,7 @@
     <row r="7" spans="1:11" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
       <c r="A8" s="319" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1">
@@ -51426,19 +51499,19 @@
       <c r="C14" s="317" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="552">
+      <c r="D14" s="561">
         <f>MASTER!F10</f>
         <v>4100118118</v>
       </c>
-      <c r="E14" s="552"/>
+      <c r="E14" s="561"/>
       <c r="F14" s="319" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="553">
+      <c r="G14" s="563">
         <f>MASTER!H10</f>
         <v>45644</v>
       </c>
-      <c r="H14" s="553"/>
+      <c r="H14" s="563"/>
     </row>
     <row r="15" spans="1:11" ht="20.25" customHeight="1">
       <c r="A15" s="318" t="s">
@@ -51476,7 +51549,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.6">
       <c r="B21" s="389" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D21" s="318" t="s">
         <v>17</v>
@@ -51495,60 +51568,60 @@
       <c r="A25" s="318"/>
     </row>
     <row r="27" spans="1:11" ht="15.6">
-      <c r="A27" s="546" t="str">
+      <c r="A27" s="562" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="B27" s="546"/>
-      <c r="C27" s="546"/>
-      <c r="D27" s="546"/>
-      <c r="E27" s="546"/>
+      <c r="B27" s="562"/>
+      <c r="C27" s="562"/>
+      <c r="D27" s="562"/>
+      <c r="E27" s="562"/>
       <c r="F27" s="320"/>
-      <c r="G27" s="546" t="str">
+      <c r="G27" s="562" t="str">
         <f>MASTER!F17</f>
         <v>PT ATMAJAYA ARTHA PERKASA</v>
       </c>
-      <c r="H27" s="546"/>
-      <c r="I27" s="546"/>
+      <c r="H27" s="562"/>
+      <c r="I27" s="562"/>
       <c r="J27" s="320"/>
       <c r="K27" s="320"/>
     </row>
     <row r="31" spans="1:11" ht="24" customHeight="1"/>
     <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="547" t="str">
+      <c r="A32" s="564" t="str">
         <f>MASTER!F28</f>
         <v>Eko Budianto</v>
       </c>
-      <c r="B32" s="548"/>
-      <c r="C32" s="548"/>
-      <c r="D32" s="548"/>
-      <c r="E32" s="548"/>
+      <c r="B32" s="557"/>
+      <c r="C32" s="557"/>
+      <c r="D32" s="557"/>
+      <c r="E32" s="557"/>
       <c r="F32" s="321"/>
-      <c r="G32" s="547" t="str">
+      <c r="G32" s="564" t="str">
         <f>MASTER!F22</f>
         <v>Fajar Dermawan</v>
       </c>
-      <c r="H32" s="547"/>
-      <c r="I32" s="547"/>
+      <c r="H32" s="564"/>
+      <c r="I32" s="564"/>
       <c r="J32" s="321"/>
       <c r="K32" s="321"/>
     </row>
     <row r="33" spans="1:12" ht="15.6">
-      <c r="A33" s="549" t="str">
+      <c r="A33" s="558" t="str">
         <f>MASTER!C28</f>
         <v>Waspang Area Jawa Barat</v>
       </c>
-      <c r="B33" s="549"/>
-      <c r="C33" s="549"/>
-      <c r="D33" s="549"/>
-      <c r="E33" s="549"/>
+      <c r="B33" s="558"/>
+      <c r="C33" s="558"/>
+      <c r="D33" s="558"/>
+      <c r="E33" s="558"/>
       <c r="F33" s="318"/>
-      <c r="G33" s="549" t="str">
+      <c r="G33" s="558" t="str">
         <f>MASTER!C22</f>
         <v>Project Manager</v>
       </c>
-      <c r="H33" s="549"/>
-      <c r="I33" s="549"/>
+      <c r="H33" s="558"/>
+      <c r="I33" s="558"/>
       <c r="J33" s="318"/>
       <c r="K33" s="318"/>
     </row>
@@ -51558,49 +51631,54 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.6">
-      <c r="E36" s="546" t="str">
+      <c r="E36" s="562" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="F36" s="546"/>
-      <c r="G36" s="546"/>
+      <c r="F36" s="562"/>
+      <c r="G36" s="562"/>
       <c r="H36" s="320"/>
       <c r="I36" s="320"/>
-      <c r="J36" s="546"/>
-      <c r="K36" s="546"/>
-      <c r="L36" s="546"/>
+      <c r="J36" s="562"/>
+      <c r="K36" s="562"/>
+      <c r="L36" s="562"/>
     </row>
     <row r="39" spans="1:12" ht="23.25" customHeight="1"/>
     <row r="40" spans="1:12" ht="15.6">
-      <c r="J40" s="536"/>
-      <c r="K40" s="536"/>
-      <c r="L40" s="536"/>
+      <c r="J40" s="549"/>
+      <c r="K40" s="549"/>
+      <c r="L40" s="549"/>
     </row>
     <row r="41" spans="1:12" ht="15.6">
-      <c r="E41" s="548" t="str">
+      <c r="E41" s="557" t="str">
         <f>MASTER!F27</f>
         <v>Hanafi Nur Arifin</v>
       </c>
-      <c r="F41" s="548"/>
-      <c r="G41" s="548"/>
+      <c r="F41" s="557"/>
+      <c r="G41" s="557"/>
       <c r="H41" s="321"/>
       <c r="I41" s="321"/>
-      <c r="J41" s="550"/>
-      <c r="K41" s="551"/>
-      <c r="L41" s="551"/>
+      <c r="J41" s="559"/>
+      <c r="K41" s="560"/>
+      <c r="L41" s="560"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="E42" s="549" t="str">
+      <c r="E42" s="558" t="str">
         <f>MASTER!C27</f>
         <v>Asman Asset Sulawesi &amp; Malut</v>
       </c>
-      <c r="F42" s="549"/>
-      <c r="G42" s="549"/>
+      <c r="F42" s="558"/>
+      <c r="G42" s="558"/>
       <c r="H42" s="323"/>
       <c r="I42" s="323"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="E36:G36"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="J41:L41"/>
@@ -51612,11 +51690,6 @@
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="G33:I33"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="E36:G36"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -51657,7 +51730,7 @@
       <c r="E1" s="246"/>
       <c r="F1" s="247"/>
       <c r="H1" s="250" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12" customHeight="1">
@@ -51669,16 +51742,16 @@
       <c r="H2" s="245"/>
     </row>
     <row r="3" spans="1:8" s="21" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="409" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="409"/>
-      <c r="C3" s="409"/>
-      <c r="D3" s="409"/>
-      <c r="E3" s="409"/>
-      <c r="F3" s="409"/>
-      <c r="G3" s="409"/>
-      <c r="H3" s="409"/>
+      <c r="A3" s="432" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="432"/>
+      <c r="C3" s="432"/>
+      <c r="D3" s="432"/>
+      <c r="E3" s="432"/>
+      <c r="F3" s="432"/>
+      <c r="G3" s="432"/>
+      <c r="H3" s="432"/>
     </row>
     <row r="4" spans="1:8" s="21" customFormat="1" ht="24.75" customHeight="1">
       <c r="A4" s="22" t="s">
@@ -51740,38 +51813,38 @@
       <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:8" s="21" customFormat="1" ht="24" customHeight="1">
-      <c r="A9" s="410" t="s">
+      <c r="A9" s="433" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="411"/>
+      <c r="B9" s="434"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="414" t="s">
+      <c r="D9" s="437" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="416" t="s">
+      <c r="E9" s="439" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="418" t="s">
+      <c r="F9" s="441" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="418"/>
-      <c r="H9" s="414" t="s">
+      <c r="G9" s="441"/>
+      <c r="H9" s="437" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A10" s="412"/>
-      <c r="B10" s="413"/>
+      <c r="A10" s="435"/>
+      <c r="B10" s="436"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="415"/>
-      <c r="E10" s="417"/>
+      <c r="D10" s="438"/>
+      <c r="E10" s="440"/>
       <c r="F10" s="29" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="415"/>
+      <c r="H10" s="438"/>
     </row>
     <row r="11" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="30">
@@ -51789,10 +51862,10 @@
     </row>
     <row r="12" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="30"/>
-      <c r="B12" s="407">
+      <c r="B12" s="427">
         <v>1</v>
       </c>
-      <c r="C12" s="408"/>
+      <c r="C12" s="428"/>
       <c r="D12" s="38" t="s">
         <v>54</v>
       </c>
@@ -51807,10 +51880,10 @@
     </row>
     <row r="13" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="30"/>
-      <c r="B13" s="407">
+      <c r="B13" s="427">
         <v>2</v>
       </c>
-      <c r="C13" s="419"/>
+      <c r="C13" s="442"/>
       <c r="D13" s="38" t="s">
         <v>78</v>
       </c>
@@ -51825,10 +51898,10 @@
     </row>
     <row r="14" spans="1:8" s="37" customFormat="1" ht="24.75" customHeight="1">
       <c r="A14" s="30"/>
-      <c r="B14" s="407">
+      <c r="B14" s="427">
         <v>3</v>
       </c>
-      <c r="C14" s="408"/>
+      <c r="C14" s="428"/>
       <c r="D14" s="40" t="s">
         <v>79</v>
       </c>
@@ -51843,11 +51916,11 @@
     </row>
     <row r="15" spans="1:8" s="37" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="30"/>
-      <c r="B15" s="407">
+      <c r="B15" s="427">
         <f t="shared" ref="B15:B23" si="0">B14+1</f>
         <v>4</v>
       </c>
-      <c r="C15" s="408"/>
+      <c r="C15" s="428"/>
       <c r="D15" s="40" t="s">
         <v>53</v>
       </c>
@@ -51860,10 +51933,10 @@
     </row>
     <row r="16" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="30"/>
-      <c r="B16" s="407">
+      <c r="B16" s="427">
         <v>5</v>
       </c>
-      <c r="C16" s="408"/>
+      <c r="C16" s="428"/>
       <c r="D16" s="38" t="s">
         <v>55</v>
       </c>
@@ -51878,11 +51951,11 @@
     </row>
     <row r="17" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="30"/>
-      <c r="B17" s="407">
+      <c r="B17" s="427">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C17" s="408"/>
+      <c r="C17" s="428"/>
       <c r="D17" s="38" t="s">
         <v>56</v>
       </c>
@@ -51897,12 +51970,12 @@
     </row>
     <row r="18" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="41"/>
-      <c r="B18" s="407">
+      <c r="B18" s="427">
         <v>7</v>
       </c>
-      <c r="C18" s="408"/>
+      <c r="C18" s="428"/>
       <c r="D18" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>81</v>
@@ -51910,15 +51983,15 @@
       <c r="F18" s="249"/>
       <c r="G18" s="249"/>
       <c r="H18" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="41"/>
-      <c r="B19" s="407">
+      <c r="B19" s="427">
         <v>8</v>
       </c>
-      <c r="C19" s="408"/>
+      <c r="C19" s="428"/>
       <c r="D19" s="38" t="s">
         <v>82</v>
       </c>
@@ -51928,15 +52001,15 @@
       <c r="F19" s="249"/>
       <c r="G19" s="249"/>
       <c r="H19" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="41"/>
-      <c r="B20" s="407">
+      <c r="B20" s="427">
         <v>9</v>
       </c>
-      <c r="C20" s="408"/>
+      <c r="C20" s="428"/>
       <c r="D20" s="38" t="s">
         <v>57</v>
       </c>
@@ -51951,11 +52024,11 @@
     </row>
     <row r="21" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="41"/>
-      <c r="B21" s="407">
+      <c r="B21" s="427">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C21" s="408"/>
+      <c r="C21" s="428"/>
       <c r="D21" s="38" t="s">
         <v>83</v>
       </c>
@@ -51970,11 +52043,11 @@
     </row>
     <row r="22" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="41"/>
-      <c r="B22" s="407">
+      <c r="B22" s="427">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C22" s="408"/>
+      <c r="C22" s="428"/>
       <c r="D22" s="38" t="s">
         <v>58</v>
       </c>
@@ -51989,11 +52062,11 @@
     </row>
     <row r="23" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="41"/>
-      <c r="B23" s="407">
+      <c r="B23" s="427">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C23" s="408"/>
+      <c r="C23" s="428"/>
       <c r="D23" s="38" t="s">
         <v>85</v>
       </c>
@@ -52008,8 +52081,8 @@
     </row>
     <row r="24" spans="1:8" s="37" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="41"/>
-      <c r="B24" s="407"/>
-      <c r="C24" s="420"/>
+      <c r="B24" s="427"/>
+      <c r="C24" s="431"/>
       <c r="D24" s="38"/>
       <c r="E24" s="42"/>
       <c r="F24" s="34"/>
@@ -52028,8 +52101,8 @@
     </row>
     <row r="26" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="41"/>
-      <c r="B26" s="407"/>
-      <c r="C26" s="420"/>
+      <c r="B26" s="427"/>
+      <c r="C26" s="431"/>
       <c r="D26" s="38"/>
       <c r="E26" s="42"/>
       <c r="F26" s="34"/>
@@ -52038,8 +52111,8 @@
     </row>
     <row r="27" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="41"/>
-      <c r="B27" s="407"/>
-      <c r="C27" s="420"/>
+      <c r="B27" s="427"/>
+      <c r="C27" s="431"/>
       <c r="D27" s="38"/>
       <c r="E27" s="42"/>
       <c r="F27" s="34"/>
@@ -52068,8 +52141,8 @@
     </row>
     <row r="30" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="38"/>
-      <c r="B30" s="407"/>
-      <c r="C30" s="408"/>
+      <c r="B30" s="427"/>
+      <c r="C30" s="428"/>
       <c r="D30" s="38"/>
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
@@ -52078,8 +52151,8 @@
     </row>
     <row r="31" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="38"/>
-      <c r="B31" s="407"/>
-      <c r="C31" s="408"/>
+      <c r="B31" s="427"/>
+      <c r="C31" s="428"/>
       <c r="D31" s="38"/>
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
@@ -52088,8 +52161,8 @@
     </row>
     <row r="32" spans="1:8" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="38"/>
-      <c r="B32" s="407"/>
-      <c r="C32" s="408"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="428"/>
       <c r="D32" s="38"/>
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
@@ -52119,8 +52192,8 @@
     </row>
     <row r="35" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="41"/>
-      <c r="B35" s="407"/>
-      <c r="C35" s="408"/>
+      <c r="B35" s="427"/>
+      <c r="C35" s="428"/>
       <c r="D35" s="38"/>
       <c r="E35" s="42"/>
       <c r="F35" s="34"/>
@@ -52130,8 +52203,8 @@
     </row>
     <row r="36" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="41"/>
-      <c r="B36" s="421"/>
-      <c r="C36" s="422"/>
+      <c r="B36" s="429"/>
+      <c r="C36" s="430"/>
       <c r="D36" s="38"/>
       <c r="E36" s="42"/>
       <c r="F36" s="34"/>
@@ -52141,8 +52214,8 @@
     </row>
     <row r="37" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="41"/>
-      <c r="B37" s="421"/>
-      <c r="C37" s="422"/>
+      <c r="B37" s="429"/>
+      <c r="C37" s="430"/>
       <c r="D37" s="38"/>
       <c r="E37" s="42"/>
       <c r="F37" s="34"/>
@@ -52163,8 +52236,8 @@
     </row>
     <row r="39" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="30"/>
-      <c r="B39" s="407"/>
-      <c r="C39" s="408"/>
+      <c r="B39" s="427"/>
+      <c r="C39" s="428"/>
       <c r="D39" s="33"/>
       <c r="E39" s="42"/>
       <c r="F39" s="34"/>
@@ -52174,8 +52247,8 @@
     </row>
     <row r="40" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="41"/>
-      <c r="B40" s="407"/>
-      <c r="C40" s="408"/>
+      <c r="B40" s="427"/>
+      <c r="C40" s="428"/>
       <c r="D40" s="38"/>
       <c r="E40" s="42"/>
       <c r="F40" s="34"/>
@@ -52184,8 +52257,8 @@
     </row>
     <row r="41" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="41"/>
-      <c r="B41" s="407"/>
-      <c r="C41" s="408"/>
+      <c r="B41" s="427"/>
+      <c r="C41" s="428"/>
       <c r="D41" s="38"/>
       <c r="E41" s="42"/>
       <c r="F41" s="34"/>
@@ -52194,8 +52267,8 @@
     </row>
     <row r="42" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="41"/>
-      <c r="B42" s="407"/>
-      <c r="C42" s="408"/>
+      <c r="B42" s="427"/>
+      <c r="C42" s="428"/>
       <c r="D42" s="38"/>
       <c r="E42" s="42"/>
       <c r="F42" s="34"/>
@@ -52204,8 +52277,8 @@
     </row>
     <row r="43" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="41"/>
-      <c r="B43" s="407"/>
-      <c r="C43" s="408"/>
+      <c r="B43" s="427"/>
+      <c r="C43" s="428"/>
       <c r="D43" s="38"/>
       <c r="E43" s="42"/>
       <c r="F43" s="34"/>
@@ -52214,8 +52287,8 @@
     </row>
     <row r="44" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="41"/>
-      <c r="B44" s="407"/>
-      <c r="C44" s="408"/>
+      <c r="B44" s="427"/>
+      <c r="C44" s="428"/>
       <c r="D44" s="38"/>
       <c r="E44" s="42"/>
       <c r="F44" s="34"/>
@@ -52224,8 +52297,8 @@
     </row>
     <row r="45" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="41"/>
-      <c r="B45" s="407"/>
-      <c r="C45" s="408"/>
+      <c r="B45" s="427"/>
+      <c r="C45" s="428"/>
       <c r="D45" s="38"/>
       <c r="E45" s="42"/>
       <c r="F45" s="34"/>
@@ -52234,8 +52307,8 @@
     </row>
     <row r="46" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="41"/>
-      <c r="B46" s="407"/>
-      <c r="C46" s="408"/>
+      <c r="B46" s="427"/>
+      <c r="C46" s="428"/>
       <c r="D46" s="38"/>
       <c r="E46" s="42"/>
       <c r="F46" s="34"/>
@@ -52244,8 +52317,8 @@
     </row>
     <row r="47" spans="1:10" s="45" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="41"/>
-      <c r="B47" s="407"/>
-      <c r="C47" s="408"/>
+      <c r="B47" s="427"/>
+      <c r="C47" s="428"/>
       <c r="D47" s="38"/>
       <c r="E47" s="42"/>
       <c r="F47" s="34"/>
@@ -52280,41 +52353,41 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B52" s="56"/>
       <c r="C52" s="56"/>
       <c r="D52" s="57"/>
       <c r="E52" s="58"/>
       <c r="F52" s="59" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G52" s="60"/>
       <c r="H52" s="61"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="423" t="str">
+      <c r="A53" s="416" t="str">
         <f>MASTER!F17</f>
         <v>PT ATMAJAYA ARTHA PERKASA</v>
       </c>
-      <c r="B53" s="424"/>
-      <c r="C53" s="424"/>
-      <c r="D53" s="425"/>
+      <c r="B53" s="417"/>
+      <c r="C53" s="417"/>
+      <c r="D53" s="418"/>
       <c r="E53" s="62"/>
-      <c r="F53" s="423" t="str">
+      <c r="F53" s="416" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="G53" s="424"/>
-      <c r="H53" s="425"/>
+      <c r="G53" s="417"/>
+      <c r="H53" s="418"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="63" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="64"/>
-      <c r="C54" s="426"/>
-      <c r="D54" s="427"/>
+      <c r="C54" s="419"/>
+      <c r="D54" s="420"/>
       <c r="E54" s="58"/>
       <c r="F54" s="63" t="s">
         <v>88</v>
@@ -52348,9 +52421,9 @@
       <c r="C57" s="62"/>
       <c r="D57" s="70"/>
       <c r="E57" s="62"/>
-      <c r="F57" s="428"/>
-      <c r="G57" s="429"/>
-      <c r="H57" s="430"/>
+      <c r="F57" s="421"/>
+      <c r="G57" s="422"/>
+      <c r="H57" s="423"/>
     </row>
     <row r="58" spans="1:8" ht="16.2" thickBot="1">
       <c r="A58" s="71"/>
@@ -52358,9 +52431,9 @@
       <c r="C58" s="72"/>
       <c r="D58" s="73"/>
       <c r="E58" s="58"/>
-      <c r="F58" s="431"/>
-      <c r="G58" s="432"/>
-      <c r="H58" s="433"/>
+      <c r="F58" s="424"/>
+      <c r="G58" s="425"/>
+      <c r="H58" s="426"/>
     </row>
     <row r="4445" spans="78:78">
       <c r="BZ4445" s="20" t="s">
@@ -52369,11 +52442,30 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
@@ -52386,30 +52478,11 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F58:H58"/>
   </mergeCells>
   <pageMargins left="0.77870078740157478" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -52477,31 +52550,31 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="209"/>
-      <c r="B9" s="554" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" s="554"/>
-      <c r="D9" s="554"/>
-      <c r="E9" s="554"/>
-      <c r="F9" s="554"/>
-      <c r="G9" s="554"/>
-      <c r="H9" s="554"/>
-      <c r="I9" s="554"/>
-      <c r="J9" s="555"/>
+      <c r="B9" s="567" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="567"/>
+      <c r="D9" s="567"/>
+      <c r="E9" s="567"/>
+      <c r="F9" s="567"/>
+      <c r="G9" s="567"/>
+      <c r="H9" s="567"/>
+      <c r="I9" s="567"/>
+      <c r="J9" s="568"/>
     </row>
     <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="209"/>
-      <c r="B10" s="554" t="s">
-        <v>388</v>
-      </c>
-      <c r="C10" s="554"/>
-      <c r="D10" s="554"/>
-      <c r="E10" s="554"/>
-      <c r="F10" s="554"/>
-      <c r="G10" s="554"/>
-      <c r="H10" s="554"/>
-      <c r="I10" s="554"/>
-      <c r="J10" s="555"/>
+      <c r="B10" s="567" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="567"/>
+      <c r="D10" s="567"/>
+      <c r="E10" s="567"/>
+      <c r="F10" s="567"/>
+      <c r="G10" s="567"/>
+      <c r="H10" s="567"/>
+      <c r="I10" s="567"/>
+      <c r="J10" s="568"/>
     </row>
     <row r="11" spans="1:10" ht="18">
       <c r="A11" s="209"/>
@@ -52676,27 +52749,27 @@
       <c r="C39" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="556" t="str">
+      <c r="D39" s="569" t="str">
         <f>MASTER!F12</f>
         <v>Desa Gotalamo</v>
       </c>
-      <c r="E39" s="556"/>
-      <c r="F39" s="556"/>
-      <c r="G39" s="556"/>
-      <c r="H39" s="556"/>
-      <c r="I39" s="556"/>
+      <c r="E39" s="569"/>
+      <c r="F39" s="569"/>
+      <c r="G39" s="569"/>
+      <c r="H39" s="569"/>
+      <c r="I39" s="569"/>
       <c r="J39" s="225"/>
     </row>
     <row r="40" spans="1:10" ht="21.75" hidden="1" customHeight="1">
       <c r="A40" s="209"/>
       <c r="B40" s="174"/>
       <c r="C40" s="174"/>
-      <c r="D40" s="556"/>
-      <c r="E40" s="556"/>
-      <c r="F40" s="556"/>
-      <c r="G40" s="556"/>
-      <c r="H40" s="556"/>
-      <c r="I40" s="556"/>
+      <c r="D40" s="569"/>
+      <c r="E40" s="569"/>
+      <c r="F40" s="569"/>
+      <c r="G40" s="569"/>
+      <c r="H40" s="569"/>
+      <c r="I40" s="569"/>
       <c r="J40" s="225"/>
     </row>
     <row r="41" spans="1:10" ht="21.75" customHeight="1">
@@ -52886,12 +52959,12 @@
       <c r="D10" s="330"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1">
-      <c r="A11" s="557" t="s">
+      <c r="A11" s="570" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="558"/>
-      <c r="C11" s="558"/>
-      <c r="D11" s="559"/>
+      <c r="B11" s="571"/>
+      <c r="C11" s="571"/>
+      <c r="D11" s="572"/>
     </row>
     <row r="12" spans="1:6" ht="12" customHeight="1">
       <c r="A12" s="334"/>
@@ -52900,19 +52973,19 @@
       <c r="D12" s="336"/>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
-      <c r="A13" s="563" t="str">
+      <c r="A13" s="576" t="str">
         <f>MASTER!F5</f>
         <v>24IS11C0001</v>
       </c>
-      <c r="B13" s="564"/>
-      <c r="C13" s="564"/>
-      <c r="D13" s="565"/>
+      <c r="B13" s="577"/>
+      <c r="C13" s="577"/>
+      <c r="D13" s="578"/>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A14" s="563"/>
-      <c r="B14" s="564"/>
-      <c r="C14" s="564"/>
-      <c r="D14" s="565"/>
+      <c r="A14" s="576"/>
+      <c r="B14" s="577"/>
+      <c r="C14" s="577"/>
+      <c r="D14" s="578"/>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1">
       <c r="A15" s="329"/>
@@ -52931,51 +53004,51 @@
       <c r="D18" s="330"/>
     </row>
     <row r="19" spans="1:4" ht="14.4">
-      <c r="A19" s="566" t="s">
+      <c r="A19" s="579" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="567"/>
-      <c r="C19" s="567"/>
-      <c r="D19" s="568"/>
+      <c r="B19" s="580"/>
+      <c r="C19" s="580"/>
+      <c r="D19" s="581"/>
     </row>
     <row r="20" spans="1:4" ht="14.4">
-      <c r="A20" s="566"/>
-      <c r="B20" s="567"/>
-      <c r="C20" s="567"/>
-      <c r="D20" s="568"/>
+      <c r="A20" s="579"/>
+      <c r="B20" s="580"/>
+      <c r="C20" s="580"/>
+      <c r="D20" s="581"/>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="569" t="str">
+      <c r="A21" s="582" t="str">
         <f>MASTER!F6</f>
         <v>MUHAJRIN_MOROTAI_SELATAN</v>
       </c>
-      <c r="B21" s="570"/>
-      <c r="C21" s="570"/>
-      <c r="D21" s="571"/>
+      <c r="B21" s="583"/>
+      <c r="C21" s="583"/>
+      <c r="D21" s="584"/>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="569"/>
-      <c r="B22" s="570"/>
-      <c r="C22" s="570"/>
-      <c r="D22" s="571"/>
+      <c r="A22" s="582"/>
+      <c r="B22" s="583"/>
+      <c r="C22" s="583"/>
+      <c r="D22" s="584"/>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="569"/>
-      <c r="B23" s="570"/>
-      <c r="C23" s="570"/>
-      <c r="D23" s="571"/>
+      <c r="A23" s="582"/>
+      <c r="B23" s="583"/>
+      <c r="C23" s="583"/>
+      <c r="D23" s="584"/>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="569"/>
-      <c r="B24" s="570"/>
-      <c r="C24" s="570"/>
-      <c r="D24" s="571"/>
+      <c r="A24" s="582"/>
+      <c r="B24" s="583"/>
+      <c r="C24" s="583"/>
+      <c r="D24" s="584"/>
     </row>
     <row r="25" spans="1:4" ht="21" customHeight="1">
-      <c r="A25" s="569"/>
-      <c r="B25" s="570"/>
-      <c r="C25" s="570"/>
-      <c r="D25" s="571"/>
+      <c r="A25" s="582"/>
+      <c r="B25" s="583"/>
+      <c r="C25" s="583"/>
+      <c r="D25" s="584"/>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
       <c r="A26" s="337"/>
@@ -53014,33 +53087,33 @@
       <c r="D32" s="330"/>
     </row>
     <row r="33" spans="1:4" ht="14.4">
-      <c r="A33" s="566" t="s">
+      <c r="A33" s="579" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="567"/>
-      <c r="C33" s="567"/>
-      <c r="D33" s="568"/>
+      <c r="B33" s="580"/>
+      <c r="C33" s="580"/>
+      <c r="D33" s="581"/>
     </row>
     <row r="34" spans="1:4" ht="14.4">
-      <c r="A34" s="566"/>
-      <c r="B34" s="567"/>
-      <c r="C34" s="567"/>
-      <c r="D34" s="568"/>
+      <c r="A34" s="579"/>
+      <c r="B34" s="580"/>
+      <c r="C34" s="580"/>
+      <c r="D34" s="581"/>
     </row>
     <row r="35" spans="1:4" ht="14.4">
-      <c r="A35" s="560" t="str">
+      <c r="A35" s="573" t="str">
         <f>MASTER!F8</f>
         <v>DRB-10-039</v>
       </c>
-      <c r="B35" s="561"/>
-      <c r="C35" s="561"/>
-      <c r="D35" s="562"/>
+      <c r="B35" s="574"/>
+      <c r="C35" s="574"/>
+      <c r="D35" s="575"/>
     </row>
     <row r="36" spans="1:4" ht="14.4">
-      <c r="A36" s="560"/>
-      <c r="B36" s="561"/>
-      <c r="C36" s="561"/>
-      <c r="D36" s="562"/>
+      <c r="A36" s="573"/>
+      <c r="B36" s="574"/>
+      <c r="C36" s="574"/>
+      <c r="D36" s="575"/>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
       <c r="A37" s="329"/>
@@ -53144,7 +53217,7 @@
   <sheetData>
     <row r="4" spans="2:17" ht="28.8">
       <c r="B4" s="375" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="375" t="s">
         <v>49</v>
@@ -53153,34 +53226,34 @@
         <v>127</v>
       </c>
       <c r="E4" s="375" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="375" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="375" t="s">
         <v>332</v>
       </c>
-      <c r="G4" s="375" t="s">
+      <c r="H4" s="375" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="375" t="s">
+      <c r="I4" s="376" t="s">
         <v>334</v>
       </c>
-      <c r="I4" s="376" t="s">
+      <c r="J4" s="377" t="s">
         <v>335</v>
       </c>
-      <c r="J4" s="377" t="s">
+      <c r="K4" s="375" t="s">
         <v>336</v>
       </c>
-      <c r="K4" s="375" t="s">
+      <c r="L4" s="375" t="s">
         <v>337</v>
-      </c>
-      <c r="L4" s="375" t="s">
-        <v>338</v>
       </c>
       <c r="M4" s="375" t="s">
         <v>27</v>
       </c>
       <c r="N4" s="375" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O4" s="375" t="s">
         <v>27</v>
@@ -53189,7 +53262,7 @@
         <v>6</v>
       </c>
       <c r="Q4" s="375" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -53197,19 +53270,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="378" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" t="s">
         <v>341</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>342</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>343</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>344</v>
-      </c>
-      <c r="H5" t="s">
-        <v>345</v>
       </c>
       <c r="I5" s="379">
         <v>68000000</v>
@@ -53219,16 +53292,16 @@
         <v>68000000</v>
       </c>
       <c r="L5" t="s">
+        <v>345</v>
+      </c>
+      <c r="M5" t="s">
         <v>346</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>347</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>348</v>
-      </c>
-      <c r="O5" t="s">
-        <v>349</v>
       </c>
       <c r="P5">
         <v>4100096959</v>
@@ -53243,19 +53316,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="378" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" t="s">
         <v>350</v>
       </c>
-      <c r="D6" t="s">
-        <v>351</v>
-      </c>
       <c r="E6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F6" t="s">
         <v>343</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>344</v>
-      </c>
-      <c r="H6" t="s">
-        <v>345</v>
       </c>
       <c r="I6" s="379">
         <v>68000000</v>
@@ -53265,16 +53338,16 @@
         <v>68000000</v>
       </c>
       <c r="L6" t="s">
+        <v>345</v>
+      </c>
+      <c r="M6" t="s">
         <v>346</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>347</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>348</v>
-      </c>
-      <c r="O6" t="s">
-        <v>349</v>
       </c>
       <c r="P6">
         <v>4100096959</v>
@@ -53289,19 +53362,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="378" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" t="s">
         <v>352</v>
       </c>
-      <c r="D7" t="s">
-        <v>353</v>
-      </c>
       <c r="E7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" t="s">
         <v>343</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>344</v>
-      </c>
-      <c r="H7" t="s">
-        <v>345</v>
       </c>
       <c r="I7" s="379">
         <v>68000000</v>
@@ -53311,16 +53384,16 @@
         <v>68000000</v>
       </c>
       <c r="L7" t="s">
+        <v>345</v>
+      </c>
+      <c r="M7" t="s">
         <v>346</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>347</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>348</v>
-      </c>
-      <c r="O7" t="s">
-        <v>349</v>
       </c>
       <c r="P7">
         <v>4100096959</v>
@@ -53335,19 +53408,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="378" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" t="s">
         <v>354</v>
       </c>
-      <c r="D8" t="s">
-        <v>355</v>
-      </c>
       <c r="E8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" t="s">
         <v>343</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>344</v>
-      </c>
-      <c r="H8" t="s">
-        <v>345</v>
       </c>
       <c r="I8" s="379">
         <v>68000000</v>
@@ -53357,16 +53430,16 @@
         <v>68000000</v>
       </c>
       <c r="L8" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" t="s">
         <v>346</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>347</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>348</v>
-      </c>
-      <c r="O8" t="s">
-        <v>349</v>
       </c>
       <c r="P8">
         <v>4100096959</v>
@@ -53381,19 +53454,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="378" t="s">
+        <v>355</v>
+      </c>
+      <c r="D9" t="s">
         <v>356</v>
       </c>
-      <c r="D9" t="s">
-        <v>357</v>
-      </c>
       <c r="E9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" t="s">
         <v>343</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>344</v>
-      </c>
-      <c r="H9" t="s">
-        <v>345</v>
       </c>
       <c r="I9" s="379">
         <v>25000000</v>
@@ -53403,16 +53476,16 @@
         <v>25000000</v>
       </c>
       <c r="L9" t="s">
+        <v>345</v>
+      </c>
+      <c r="M9" t="s">
         <v>346</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>347</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>348</v>
-      </c>
-      <c r="O9" t="s">
-        <v>349</v>
       </c>
       <c r="P9">
         <v>4100096959</v>
@@ -53427,19 +53500,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="378" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" t="s">
         <v>358</v>
       </c>
-      <c r="D10" t="s">
-        <v>359</v>
-      </c>
       <c r="E10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F10" t="s">
         <v>343</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>344</v>
-      </c>
-      <c r="H10" t="s">
-        <v>345</v>
       </c>
       <c r="I10" s="379">
         <v>25000000</v>
@@ -53449,16 +53522,16 @@
         <v>25000000</v>
       </c>
       <c r="L10" t="s">
+        <v>345</v>
+      </c>
+      <c r="M10" t="s">
         <v>346</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>347</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>348</v>
-      </c>
-      <c r="O10" t="s">
-        <v>349</v>
       </c>
       <c r="P10">
         <v>4100096959</v>
@@ -53473,19 +53546,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="378" t="s">
+        <v>359</v>
+      </c>
+      <c r="D11" t="s">
         <v>360</v>
       </c>
-      <c r="D11" t="s">
-        <v>361</v>
-      </c>
       <c r="E11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F11" t="s">
         <v>343</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>344</v>
-      </c>
-      <c r="H11" t="s">
-        <v>345</v>
       </c>
       <c r="I11" s="379">
         <v>25000000</v>
@@ -53495,16 +53568,16 @@
         <v>25000000</v>
       </c>
       <c r="L11" t="s">
+        <v>345</v>
+      </c>
+      <c r="M11" t="s">
         <v>346</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>347</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>348</v>
-      </c>
-      <c r="O11" t="s">
-        <v>349</v>
       </c>
       <c r="P11">
         <v>4100096959</v>
@@ -53519,19 +53592,19 @@
         <v>8</v>
       </c>
       <c r="C12" s="378" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" t="s">
         <v>362</v>
       </c>
-      <c r="D12" t="s">
-        <v>363</v>
-      </c>
       <c r="E12" t="s">
+        <v>342</v>
+      </c>
+      <c r="F12" t="s">
         <v>343</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>344</v>
-      </c>
-      <c r="H12" t="s">
-        <v>345</v>
       </c>
       <c r="I12" s="379">
         <v>123000000</v>
@@ -53541,16 +53614,16 @@
         <v>123000000</v>
       </c>
       <c r="L12" t="s">
+        <v>345</v>
+      </c>
+      <c r="M12" t="s">
         <v>346</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>347</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>348</v>
-      </c>
-      <c r="O12" t="s">
-        <v>349</v>
       </c>
       <c r="P12">
         <v>4100096959</v>
@@ -53565,19 +53638,19 @@
         <v>9</v>
       </c>
       <c r="C13" s="378" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" t="s">
         <v>364</v>
       </c>
-      <c r="D13" t="s">
-        <v>365</v>
-      </c>
       <c r="E13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" t="s">
         <v>343</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>344</v>
-      </c>
-      <c r="H13" t="s">
-        <v>345</v>
       </c>
       <c r="I13" s="379">
         <v>20000000</v>
@@ -53587,16 +53660,16 @@
         <v>20000000</v>
       </c>
       <c r="L13" t="s">
+        <v>345</v>
+      </c>
+      <c r="M13" t="s">
         <v>346</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>347</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>348</v>
-      </c>
-      <c r="O13" t="s">
-        <v>349</v>
       </c>
       <c r="P13">
         <v>4100096959</v>
@@ -53611,19 +53684,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="378" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" t="s">
         <v>366</v>
       </c>
-      <c r="D14" t="s">
-        <v>367</v>
-      </c>
       <c r="E14" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" t="s">
         <v>343</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>344</v>
-      </c>
-      <c r="H14" t="s">
-        <v>345</v>
       </c>
       <c r="I14" s="379">
         <v>25000000</v>
@@ -53633,16 +53706,16 @@
         <v>25000000</v>
       </c>
       <c r="L14" t="s">
+        <v>345</v>
+      </c>
+      <c r="M14" t="s">
         <v>346</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>347</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>348</v>
-      </c>
-      <c r="O14" t="s">
-        <v>349</v>
       </c>
       <c r="P14">
         <v>4100096959</v>
@@ -53657,19 +53730,19 @@
         <v>11</v>
       </c>
       <c r="C15" s="378" t="s">
+        <v>367</v>
+      </c>
+      <c r="D15" t="s">
         <v>368</v>
       </c>
-      <c r="D15" t="s">
-        <v>369</v>
-      </c>
       <c r="E15" t="s">
+        <v>342</v>
+      </c>
+      <c r="F15" t="s">
         <v>343</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>344</v>
-      </c>
-      <c r="H15" t="s">
-        <v>345</v>
       </c>
       <c r="I15" s="379">
         <v>68000000</v>
@@ -53679,16 +53752,16 @@
         <v>68000000</v>
       </c>
       <c r="L15" t="s">
+        <v>345</v>
+      </c>
+      <c r="M15" t="s">
         <v>346</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>347</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>348</v>
-      </c>
-      <c r="O15" t="s">
-        <v>349</v>
       </c>
       <c r="P15">
         <v>4100096959</v>
@@ -53702,19 +53775,19 @@
         <v>12</v>
       </c>
       <c r="C16" s="382" t="s">
+        <v>369</v>
+      </c>
+      <c r="D16" t="s">
         <v>370</v>
       </c>
-      <c r="D16" t="s">
-        <v>371</v>
-      </c>
       <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" t="s">
         <v>343</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>344</v>
-      </c>
-      <c r="H16" t="s">
-        <v>345</v>
       </c>
       <c r="I16" s="379">
         <v>68000000</v>
@@ -53724,16 +53797,16 @@
         <v>68000000</v>
       </c>
       <c r="L16" t="s">
+        <v>345</v>
+      </c>
+      <c r="M16" t="s">
         <v>346</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>347</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>348</v>
-      </c>
-      <c r="O16" t="s">
-        <v>349</v>
       </c>
       <c r="P16">
         <v>4100096959</v>
@@ -53747,19 +53820,19 @@
         <v>13</v>
       </c>
       <c r="C17" s="382" t="s">
+        <v>371</v>
+      </c>
+      <c r="D17" t="s">
         <v>372</v>
       </c>
-      <c r="D17" t="s">
-        <v>373</v>
-      </c>
       <c r="E17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" t="s">
         <v>343</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>344</v>
-      </c>
-      <c r="H17" t="s">
-        <v>345</v>
       </c>
       <c r="I17" s="379">
         <v>43000000</v>
@@ -53769,16 +53842,16 @@
         <v>43000000</v>
       </c>
       <c r="L17" t="s">
+        <v>345</v>
+      </c>
+      <c r="M17" t="s">
         <v>346</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>347</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>348</v>
-      </c>
-      <c r="O17" t="s">
-        <v>349</v>
       </c>
       <c r="P17">
         <v>4100096959</v>
@@ -53792,19 +53865,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="382" t="s">
+        <v>373</v>
+      </c>
+      <c r="D18" t="s">
         <v>374</v>
       </c>
-      <c r="D18" t="s">
-        <v>375</v>
-      </c>
       <c r="E18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" t="s">
         <v>343</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>344</v>
-      </c>
-      <c r="H18" t="s">
-        <v>345</v>
       </c>
       <c r="I18" s="379">
         <v>43000000</v>
@@ -53814,16 +53887,16 @@
         <v>43000000</v>
       </c>
       <c r="L18" t="s">
+        <v>345</v>
+      </c>
+      <c r="M18" t="s">
         <v>346</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>347</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>348</v>
-      </c>
-      <c r="O18" t="s">
-        <v>349</v>
       </c>
       <c r="P18">
         <v>4100096959</v>
@@ -53837,16 +53910,16 @@
         <v>15</v>
       </c>
       <c r="C19" s="382" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" t="s">
         <v>376</v>
       </c>
-      <c r="D19" t="s">
-        <v>377</v>
-      </c>
       <c r="E19" t="s">
+        <v>342</v>
+      </c>
+      <c r="F19" t="s">
         <v>343</v>
-      </c>
-      <c r="F19" t="s">
-        <v>344</v>
       </c>
       <c r="I19" s="379">
         <v>25000000</v>
@@ -53856,16 +53929,16 @@
         <v>25000000</v>
       </c>
       <c r="L19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M19" t="s">
         <v>346</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>347</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>348</v>
-      </c>
-      <c r="O19" t="s">
-        <v>349</v>
       </c>
       <c r="P19">
         <v>4100096959</v>
@@ -53902,26 +53975,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="409" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" s="409"/>
-      <c r="C1" s="409"/>
-      <c r="D1" s="409"/>
-      <c r="E1" s="409"/>
-      <c r="F1" s="409"/>
-      <c r="G1" s="409"/>
-      <c r="H1" s="409"/>
+      <c r="A1" s="432" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="432"/>
+      <c r="C1" s="432"/>
+      <c r="D1" s="432"/>
+      <c r="E1" s="432"/>
+      <c r="F1" s="432"/>
+      <c r="G1" s="432"/>
+      <c r="H1" s="432"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="409"/>
-      <c r="B2" s="409"/>
-      <c r="C2" s="409"/>
-      <c r="D2" s="409"/>
-      <c r="E2" s="409"/>
-      <c r="F2" s="409"/>
-      <c r="G2" s="409"/>
-      <c r="H2" s="409"/>
+      <c r="A2" s="432"/>
+      <c r="B2" s="432"/>
+      <c r="C2" s="432"/>
+      <c r="D2" s="432"/>
+      <c r="E2" s="432"/>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
+      <c r="H2" s="432"/>
     </row>
     <row r="3" spans="1:8" ht="21">
       <c r="A3" s="223"/>
@@ -54012,43 +54085,43 @@
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1">
-      <c r="A9" s="410" t="s">
+      <c r="A9" s="433" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="411"/>
+      <c r="B9" s="434"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="414" t="s">
+      <c r="D9" s="437" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="416" t="s">
+      <c r="E9" s="439" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="418" t="s">
+      <c r="F9" s="441" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="418"/>
-      <c r="H9" s="414" t="s">
+      <c r="G9" s="441"/>
+      <c r="H9" s="437" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="A10" s="412"/>
-      <c r="B10" s="413"/>
+      <c r="A10" s="435"/>
+      <c r="B10" s="436"/>
       <c r="C10" s="28"/>
-      <c r="D10" s="415"/>
-      <c r="E10" s="417"/>
+      <c r="D10" s="438"/>
+      <c r="E10" s="440"/>
       <c r="F10" s="29" t="s">
         <v>76</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="H10" s="415"/>
+      <c r="H10" s="438"/>
     </row>
     <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="41"/>
-      <c r="B11" s="434"/>
-      <c r="C11" s="435"/>
+      <c r="B11" s="443"/>
+      <c r="C11" s="444"/>
       <c r="D11" s="38"/>
       <c r="E11" s="42"/>
       <c r="F11" s="34"/>
@@ -54059,8 +54132,8 @@
       <c r="A12" s="30">
         <v>1</v>
       </c>
-      <c r="B12" s="449"/>
-      <c r="C12" s="449"/>
+      <c r="B12" s="445"/>
+      <c r="C12" s="445"/>
       <c r="D12" s="33" t="s">
         <v>60</v>
       </c>
@@ -54071,12 +54144,12 @@
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="A13" s="30"/>
-      <c r="B13" s="450">
+      <c r="B13" s="446">
         <v>1</v>
       </c>
-      <c r="C13" s="451"/>
+      <c r="C13" s="447"/>
       <c r="D13" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="42" t="s">
         <v>91</v>
@@ -54089,12 +54162,12 @@
     </row>
     <row r="14" spans="1:8" ht="15">
       <c r="A14" s="30"/>
-      <c r="B14" s="452">
+      <c r="B14" s="448">
         <v>2</v>
       </c>
-      <c r="C14" s="453"/>
+      <c r="C14" s="449"/>
       <c r="D14" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>91</v>
@@ -54107,12 +54180,12 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="41"/>
-      <c r="B15" s="434">
+      <c r="B15" s="443">
         <v>3</v>
       </c>
-      <c r="C15" s="445"/>
+      <c r="C15" s="450"/>
       <c r="D15" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E15" s="42" t="s">
         <v>67</v>
@@ -54125,12 +54198,12 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="41"/>
-      <c r="B16" s="434">
+      <c r="B16" s="443">
         <v>4</v>
       </c>
-      <c r="C16" s="445"/>
+      <c r="C16" s="450"/>
       <c r="D16" s="40" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E16" s="42" t="s">
         <v>91</v>
@@ -54143,8 +54216,8 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="41"/>
-      <c r="B17" s="434"/>
-      <c r="C17" s="434"/>
+      <c r="B17" s="443"/>
+      <c r="C17" s="443"/>
       <c r="D17" s="38"/>
       <c r="E17" s="42"/>
       <c r="F17" s="34"/>
@@ -54155,8 +54228,8 @@
       <c r="A18" s="30">
         <v>2</v>
       </c>
-      <c r="B18" s="446"/>
-      <c r="C18" s="447"/>
+      <c r="B18" s="451"/>
+      <c r="C18" s="452"/>
       <c r="D18" s="33" t="s">
         <v>59</v>
       </c>
@@ -54167,12 +54240,12 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="41"/>
-      <c r="B19" s="434">
+      <c r="B19" s="443">
         <v>1</v>
       </c>
-      <c r="C19" s="434"/>
+      <c r="C19" s="443"/>
       <c r="D19" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>67</v>
@@ -54188,7 +54261,7 @@
       <c r="B20" s="237"/>
       <c r="C20" s="238"/>
       <c r="D20" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>67</v>
@@ -54204,7 +54277,7 @@
       <c r="B21" s="237"/>
       <c r="C21" s="238"/>
       <c r="D21" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>67</v>
@@ -54220,7 +54293,7 @@
       <c r="B22" s="237"/>
       <c r="C22" s="238"/>
       <c r="D22" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>67</v>
@@ -54233,12 +54306,12 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="41"/>
-      <c r="B23" s="407">
+      <c r="B23" s="427">
         <v>2</v>
       </c>
-      <c r="C23" s="408"/>
+      <c r="C23" s="428"/>
       <c r="D23" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>67</v>
@@ -54251,12 +54324,12 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="41"/>
-      <c r="B24" s="407">
+      <c r="B24" s="427">
         <v>3</v>
       </c>
-      <c r="C24" s="408"/>
+      <c r="C24" s="428"/>
       <c r="D24" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>67</v>
@@ -54269,10 +54342,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="41"/>
-      <c r="B25" s="407"/>
-      <c r="C25" s="408"/>
+      <c r="B25" s="427"/>
+      <c r="C25" s="428"/>
       <c r="D25" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>67</v>
@@ -54285,10 +54358,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="41"/>
-      <c r="B26" s="407"/>
-      <c r="C26" s="408"/>
+      <c r="B26" s="427"/>
+      <c r="C26" s="428"/>
       <c r="D26" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>67</v>
@@ -54301,12 +54374,12 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="41"/>
-      <c r="B27" s="407">
+      <c r="B27" s="427">
         <v>4</v>
       </c>
-      <c r="C27" s="408"/>
+      <c r="C27" s="428"/>
       <c r="D27" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E27" s="42" t="s">
         <v>67</v>
@@ -54319,12 +54392,12 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="41"/>
-      <c r="B28" s="407">
+      <c r="B28" s="427">
         <v>5</v>
       </c>
-      <c r="C28" s="408"/>
+      <c r="C28" s="428"/>
       <c r="D28" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="34"/>
@@ -54333,12 +54406,12 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="41"/>
-      <c r="B29" s="407">
+      <c r="B29" s="427">
         <v>6</v>
       </c>
-      <c r="C29" s="408"/>
+      <c r="C29" s="428"/>
       <c r="D29" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="34"/>
@@ -54347,12 +54420,12 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="41"/>
-      <c r="B30" s="407">
+      <c r="B30" s="427">
         <v>7</v>
       </c>
-      <c r="C30" s="408"/>
+      <c r="C30" s="428"/>
       <c r="D30" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="34"/>
@@ -54361,12 +54434,12 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="41"/>
-      <c r="B31" s="407">
+      <c r="B31" s="427">
         <v>8</v>
       </c>
-      <c r="C31" s="408"/>
+      <c r="C31" s="428"/>
       <c r="D31" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="42"/>
       <c r="F31" s="34"/>
@@ -54375,8 +54448,8 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="41"/>
-      <c r="B32" s="407"/>
-      <c r="C32" s="408"/>
+      <c r="B32" s="427"/>
+      <c r="C32" s="428"/>
       <c r="D32" s="38"/>
       <c r="E32" s="42"/>
       <c r="F32" s="34"/>
@@ -54387,8 +54460,8 @@
       <c r="A33" s="30">
         <v>5</v>
       </c>
-      <c r="B33" s="448"/>
-      <c r="C33" s="448"/>
+      <c r="B33" s="453"/>
+      <c r="C33" s="453"/>
       <c r="D33" s="33" t="s">
         <v>92</v>
       </c>
@@ -54399,12 +54472,12 @@
     </row>
     <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="30"/>
-      <c r="B34" s="434">
+      <c r="B34" s="443">
         <v>1</v>
       </c>
-      <c r="C34" s="435"/>
+      <c r="C34" s="444"/>
       <c r="D34" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E34" s="42" t="s">
         <v>81</v>
@@ -54417,13 +54490,13 @@
     </row>
     <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="38"/>
-      <c r="B35" s="434">
+      <c r="B35" s="443">
         <f>1+B34</f>
         <v>2</v>
       </c>
-      <c r="C35" s="435"/>
+      <c r="C35" s="444"/>
       <c r="D35" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>67</v>
@@ -54431,18 +54504,18 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="38"/>
-      <c r="B36" s="434">
+      <c r="B36" s="443">
         <f>1+B35</f>
         <v>3</v>
       </c>
-      <c r="C36" s="435"/>
+      <c r="C36" s="444"/>
       <c r="D36" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>81</v>
@@ -54455,13 +54528,13 @@
     </row>
     <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="38"/>
-      <c r="B37" s="434">
+      <c r="B37" s="443">
         <f>1+B36</f>
         <v>4</v>
       </c>
-      <c r="C37" s="435"/>
+      <c r="C37" s="444"/>
       <c r="D37" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>67</v>
@@ -54497,28 +54570,28 @@
       <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="428" t="str">
+      <c r="A40" s="421" t="str">
         <f>MASTER!F17</f>
         <v>PT ATMAJAYA ARTHA PERKASA</v>
       </c>
-      <c r="B40" s="429"/>
-      <c r="C40" s="429"/>
-      <c r="D40" s="430"/>
+      <c r="B40" s="422"/>
+      <c r="C40" s="422"/>
+      <c r="D40" s="423"/>
       <c r="E40" s="62"/>
-      <c r="F40" s="423" t="str">
+      <c r="F40" s="416" t="str">
         <f>MASTER!C24</f>
         <v>PT. Dayamitra Telekomunikasi, Tbk</v>
       </c>
-      <c r="G40" s="424"/>
-      <c r="H40" s="425"/>
+      <c r="G40" s="417"/>
+      <c r="H40" s="418"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="63" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="64"/>
-      <c r="C41" s="426"/>
-      <c r="D41" s="427"/>
+      <c r="C41" s="419"/>
+      <c r="D41" s="420"/>
       <c r="E41" s="58"/>
       <c r="F41" s="63" t="s">
         <v>88</v>
@@ -54527,34 +54600,34 @@
       <c r="H41" s="66"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="436"/>
-      <c r="B42" s="437"/>
-      <c r="C42" s="437"/>
-      <c r="D42" s="438"/>
+      <c r="A42" s="454"/>
+      <c r="B42" s="455"/>
+      <c r="C42" s="455"/>
+      <c r="D42" s="456"/>
       <c r="E42" s="58"/>
-      <c r="F42" s="436"/>
-      <c r="G42" s="437"/>
-      <c r="H42" s="438"/>
+      <c r="F42" s="454"/>
+      <c r="G42" s="455"/>
+      <c r="H42" s="456"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="439"/>
-      <c r="B43" s="440"/>
-      <c r="C43" s="440"/>
-      <c r="D43" s="441"/>
+      <c r="A43" s="457"/>
+      <c r="B43" s="458"/>
+      <c r="C43" s="458"/>
+      <c r="D43" s="459"/>
       <c r="E43" s="58"/>
-      <c r="F43" s="439"/>
-      <c r="G43" s="440"/>
-      <c r="H43" s="441"/>
+      <c r="F43" s="457"/>
+      <c r="G43" s="458"/>
+      <c r="H43" s="459"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="442"/>
-      <c r="B44" s="443"/>
-      <c r="C44" s="443"/>
-      <c r="D44" s="444"/>
+      <c r="A44" s="460"/>
+      <c r="B44" s="461"/>
+      <c r="C44" s="461"/>
+      <c r="D44" s="462"/>
       <c r="E44" s="62"/>
-      <c r="F44" s="442"/>
-      <c r="G44" s="443"/>
-      <c r="H44" s="444"/>
+      <c r="F44" s="460"/>
+      <c r="G44" s="461"/>
+      <c r="H44" s="462"/>
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1">
       <c r="A45" s="71"/>
@@ -54562,9 +54635,9 @@
       <c r="C45" s="72"/>
       <c r="D45" s="73"/>
       <c r="E45" s="58"/>
-      <c r="F45" s="431"/>
-      <c r="G45" s="432"/>
-      <c r="H45" s="433"/>
+      <c r="F45" s="424"/>
+      <c r="G45" s="425"/>
+      <c r="H45" s="426"/>
     </row>
     <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="20"/>
@@ -54618,17 +54691,15 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:D44"/>
+    <mergeCell ref="F42:H44"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -54645,15 +54716,17 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:D44"/>
-    <mergeCell ref="F42:H44"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -54669,8 +54742,8 @@
   </sheetPr>
   <dimension ref="A2:R63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -54696,17 +54769,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="M2" s="583" t="s">
-        <v>414</v>
-      </c>
-      <c r="N2" s="582"/>
-      <c r="O2" s="582"/>
-      <c r="P2" s="584"/>
+      <c r="M2" s="463" t="s">
+        <v>411</v>
+      </c>
+      <c r="N2" s="464"/>
+      <c r="O2" s="464"/>
+      <c r="P2" s="465"/>
     </row>
     <row r="3" spans="1:18" ht="24" customHeight="1">
       <c r="K3" s="155"/>
-      <c r="M3" s="585" t="s">
-        <v>221</v>
+      <c r="M3" s="398" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="10.5" customHeight="1">
@@ -54714,7 +54787,7 @@
     </row>
     <row r="5" spans="1:18" ht="21">
       <c r="A5" s="468" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B5" s="468"/>
       <c r="C5" s="468"/>
@@ -54747,7 +54820,7 @@
         <v>Survey Collo Perkuatan</v>
       </c>
       <c r="K7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>4</v>
@@ -54776,7 +54849,7 @@
       <c r="I8" s="141"/>
       <c r="J8" s="141"/>
       <c r="K8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M8" s="6" t="s">
         <v>4</v>
@@ -54805,13 +54878,13 @@
       <c r="I9" s="141"/>
       <c r="J9" s="141"/>
       <c r="K9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="N9" s="141" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O9" s="141"/>
       <c r="P9" s="141"/>
@@ -54833,7 +54906,7 @@
       <c r="I10" s="141"/>
       <c r="J10" s="141"/>
       <c r="K10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>4</v>
@@ -54862,7 +54935,7 @@
       <c r="I11" s="470"/>
       <c r="J11" s="470"/>
       <c r="K11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M11" s="6" t="s">
         <v>4</v>
@@ -54902,7 +54975,7 @@
     <row r="15" spans="1:18" ht="8.25" customHeight="1"/>
     <row r="16" spans="1:18" ht="15.6">
       <c r="A16" s="184" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.6">
@@ -54956,7 +55029,7 @@
     </row>
     <row r="21" spans="1:17" ht="15.6">
       <c r="D21" s="314" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E21" s="314"/>
       <c r="F21" s="314"/>
@@ -54976,7 +55049,7 @@
     </row>
     <row r="22" spans="1:17" ht="15.6">
       <c r="D22" s="184" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E22" s="88"/>
     </row>
@@ -55017,7 +55090,7 @@
     </row>
     <row r="26" spans="1:17" ht="15.6">
       <c r="D26" s="184" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E26" s="184"/>
       <c r="J26" s="144" t="str">
@@ -55027,7 +55100,7 @@
     </row>
     <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="D27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="9" customHeight="1"/>
@@ -55064,11 +55137,11 @@
       <c r="O30" t="s">
         <v>4</v>
       </c>
-      <c r="P30" s="460">
+      <c r="P30" s="480">
         <f>MASTER!H9</f>
         <v>45359</v>
       </c>
-      <c r="Q30" s="460"/>
+      <c r="Q30" s="480"/>
     </row>
     <row r="31" spans="1:17" ht="15.6">
       <c r="B31" s="88">
@@ -55084,13 +55157,13 @@
       <c r="G31" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="461">
+      <c r="H31" s="481">
         <f>MASTER!F10</f>
         <v>4100118118</v>
       </c>
-      <c r="I31" s="461"/>
-      <c r="J31" s="461"/>
-      <c r="K31" s="461"/>
+      <c r="I31" s="481"/>
+      <c r="J31" s="481"/>
+      <c r="K31" s="481"/>
       <c r="L31" s="154"/>
       <c r="M31" s="88" t="s">
         <v>31</v>
@@ -55098,11 +55171,11 @@
       <c r="O31" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="460">
+      <c r="P31" s="480">
         <f>MASTER!H10</f>
         <v>45644</v>
       </c>
-      <c r="Q31" s="460"/>
+      <c r="Q31" s="480"/>
     </row>
     <row r="32" spans="1:17" ht="15.6">
       <c r="B32" s="88">
@@ -55129,8 +55202,8 @@
       <c r="O32" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="462"/>
-      <c r="Q32" s="462"/>
+      <c r="P32" s="482"/>
+      <c r="Q32" s="482"/>
     </row>
     <row r="33" spans="1:17" ht="9" customHeight="1"/>
     <row r="34" spans="1:17" ht="15.6">
@@ -55219,19 +55292,19 @@
     <row r="45" spans="1:17" ht="15.6">
       <c r="D45" s="190"/>
       <c r="E45" s="190"/>
-      <c r="F45" s="463" t="s">
+      <c r="F45" s="483" t="s">
         <v>168</v>
       </c>
-      <c r="G45" s="464"/>
-      <c r="H45" s="465"/>
-      <c r="I45" s="463" t="s">
+      <c r="G45" s="484"/>
+      <c r="H45" s="485"/>
+      <c r="I45" s="483" t="s">
         <v>169</v>
       </c>
-      <c r="J45" s="464"/>
-      <c r="K45" s="463" t="s">
+      <c r="J45" s="484"/>
+      <c r="K45" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="L45" s="465"/>
+      <c r="L45" s="485"/>
       <c r="M45" s="173"/>
       <c r="N45" s="190"/>
       <c r="O45" s="190"/>
@@ -55241,21 +55314,21 @@
     <row r="46" spans="1:17" ht="17.25" customHeight="1">
       <c r="D46" s="191"/>
       <c r="E46" s="192"/>
-      <c r="F46" s="454">
+      <c r="F46" s="474">
         <f>'boq price PO'!I28</f>
         <v>10575000</v>
       </c>
-      <c r="G46" s="455"/>
-      <c r="H46" s="456"/>
-      <c r="I46" s="454" t="s">
-        <v>215</v>
-      </c>
-      <c r="J46" s="455"/>
-      <c r="K46" s="454">
+      <c r="G46" s="475"/>
+      <c r="H46" s="476"/>
+      <c r="I46" s="474" t="s">
+        <v>214</v>
+      </c>
+      <c r="J46" s="475"/>
+      <c r="K46" s="474">
         <f>'boq price PO'!I28</f>
         <v>10575000</v>
       </c>
-      <c r="L46" s="456"/>
+      <c r="L46" s="476"/>
       <c r="M46" s="228"/>
       <c r="N46" s="192"/>
       <c r="O46" s="192"/>
@@ -55265,13 +55338,13 @@
     <row r="47" spans="1:17" ht="17.25" customHeight="1">
       <c r="D47" s="191"/>
       <c r="E47" s="192"/>
-      <c r="F47" s="457"/>
-      <c r="G47" s="458"/>
-      <c r="H47" s="459"/>
-      <c r="I47" s="457"/>
-      <c r="J47" s="458"/>
-      <c r="K47" s="457"/>
-      <c r="L47" s="459"/>
+      <c r="F47" s="477"/>
+      <c r="G47" s="478"/>
+      <c r="H47" s="479"/>
+      <c r="I47" s="477"/>
+      <c r="J47" s="478"/>
+      <c r="K47" s="477"/>
+      <c r="L47" s="479"/>
       <c r="M47" s="228"/>
       <c r="N47" s="192"/>
       <c r="O47" s="192"/>
@@ -55302,7 +55375,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E49" s="192"/>
       <c r="F49" s="229"/>
@@ -55320,7 +55393,7 @@
     </row>
     <row r="50" spans="1:17" ht="17.25" hidden="1" customHeight="1">
       <c r="D50" s="191" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E50" s="192"/>
       <c r="F50" s="229"/>
@@ -55338,7 +55411,7 @@
     </row>
     <row r="51" spans="1:17" ht="17.25" hidden="1" customHeight="1">
       <c r="D51" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E51" s="192"/>
       <c r="F51" s="229"/>
@@ -55444,13 +55517,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="A5:Q5"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="F11:J12"/>
-    <mergeCell ref="H19:N19"/>
     <mergeCell ref="F46:H47"/>
     <mergeCell ref="K46:L47"/>
     <mergeCell ref="P30:Q30"/>
@@ -55461,6 +55527,13 @@
     <mergeCell ref="K45:L45"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I46:J47"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="F11:J12"/>
+    <mergeCell ref="H19:N19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -55475,8 +55548,8 @@
   </sheetPr>
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="91" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -55507,22 +55580,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" customHeight="1">
-      <c r="O1" s="474" t="s">
+      <c r="O1" s="488" t="s">
         <v>120</v>
       </c>
-      <c r="P1" s="475"/>
-      <c r="Q1" s="475"/>
+      <c r="P1" s="489"/>
+      <c r="Q1" s="489"/>
     </row>
     <row r="2" spans="1:23" ht="15" customHeight="1">
-      <c r="O2" s="586" t="s">
-        <v>414</v>
-      </c>
-      <c r="P2" s="587"/>
+      <c r="O2" s="494" t="s">
+        <v>411</v>
+      </c>
+      <c r="P2" s="495"/>
       <c r="Q2" s="182"/>
     </row>
     <row r="3" spans="1:23" ht="23.25" customHeight="1">
       <c r="O3" s="81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q3" s="182"/>
     </row>
@@ -55643,8 +55716,8 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="141"/>
-      <c r="R13" s="476"/>
-      <c r="S13" s="477"/>
+      <c r="R13" s="490"/>
+      <c r="S13" s="491"/>
       <c r="T13" s="168" t="s">
         <v>142</v>
       </c>
@@ -55706,7 +55779,7 @@
         <v>145</v>
       </c>
       <c r="S16" s="160" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T16" s="162">
         <v>44385</v>
@@ -55760,7 +55833,7 @@
         <v>148</v>
       </c>
       <c r="S19" s="161" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T19" s="162">
         <v>44475</v>
@@ -55794,7 +55867,7 @@
         <v>149</v>
       </c>
       <c r="S20" s="160" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T20" s="162">
         <v>44449</v>
@@ -55846,11 +55919,11 @@
       <c r="N22" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="O22" s="479">
+      <c r="O22" s="492">
         <f>O21+O20</f>
         <v>45651</v>
       </c>
-      <c r="P22" s="479"/>
+      <c r="P22" s="492"/>
       <c r="R22" s="160" t="s">
         <v>153</v>
       </c>
@@ -55867,16 +55940,16 @@
         <v>130</v>
       </c>
       <c r="C23" s="148" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N23" s="149" t="s">
         <v>131</v>
       </c>
-      <c r="O23" s="479">
+      <c r="O23" s="492">
         <f>O22</f>
         <v>45651</v>
       </c>
-      <c r="P23" s="479"/>
+      <c r="P23" s="492"/>
       <c r="R23" s="160" t="s">
         <v>154</v>
       </c>
@@ -55915,7 +55988,7 @@
     </row>
     <row r="25" spans="1:24" ht="15.6">
       <c r="A25" s="150" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -55944,7 +56017,7 @@
         <v>156</v>
       </c>
       <c r="S25" s="163" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T25" s="163"/>
       <c r="U25" s="163"/>
@@ -56175,12 +56248,12 @@
     </row>
     <row r="39" spans="1:19" ht="15.6">
       <c r="A39" s="149" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.6">
       <c r="A40" s="148" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.6">
@@ -56224,10 +56297,10 @@
     </row>
     <row r="55" spans="1:14" ht="18">
       <c r="A55" s="148"/>
-      <c r="I55" s="480"/>
-      <c r="J55" s="480"/>
-      <c r="K55" s="480"/>
-      <c r="L55" s="480"/>
+      <c r="I55" s="493"/>
+      <c r="J55" s="493"/>
+      <c r="K55" s="493"/>
+      <c r="L55" s="493"/>
       <c r="N55" s="154"/>
     </row>
     <row r="56" spans="1:14" ht="15.6">
@@ -56235,30 +56308,30 @@
       <c r="N56" s="154"/>
     </row>
     <row r="57" spans="1:14" ht="15.6">
-      <c r="H57" s="478"/>
-      <c r="I57" s="478"/>
-      <c r="J57" s="478"/>
-      <c r="K57" s="478"/>
-      <c r="L57" s="478"/>
-      <c r="M57" s="478"/>
+      <c r="H57" s="487"/>
+      <c r="I57" s="487"/>
+      <c r="J57" s="487"/>
+      <c r="K57" s="487"/>
+      <c r="L57" s="487"/>
+      <c r="M57" s="487"/>
       <c r="N57" s="144"/>
     </row>
     <row r="63" spans="1:14" ht="15.6">
-      <c r="H63" s="481"/>
-      <c r="I63" s="481"/>
-      <c r="J63" s="481"/>
-      <c r="K63" s="481"/>
-      <c r="L63" s="481"/>
-      <c r="M63" s="481"/>
+      <c r="H63" s="486"/>
+      <c r="I63" s="486"/>
+      <c r="J63" s="486"/>
+      <c r="K63" s="486"/>
+      <c r="L63" s="486"/>
+      <c r="M63" s="486"/>
       <c r="N63" s="152"/>
     </row>
     <row r="64" spans="1:14" ht="15.6">
-      <c r="H64" s="478"/>
-      <c r="I64" s="478"/>
-      <c r="J64" s="478"/>
-      <c r="K64" s="478"/>
-      <c r="L64" s="478"/>
-      <c r="M64" s="478"/>
+      <c r="H64" s="487"/>
+      <c r="I64" s="487"/>
+      <c r="J64" s="487"/>
+      <c r="K64" s="487"/>
+      <c r="L64" s="487"/>
+      <c r="M64" s="487"/>
       <c r="N64" s="153"/>
     </row>
     <row r="65" spans="1:10" ht="15.6">
@@ -56269,11 +56342,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H63:M63"/>
-    <mergeCell ref="H64:M64"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="H57:M57"/>
@@ -56281,6 +56349,11 @@
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="I55:L55"/>
     <mergeCell ref="O2:P2"/>
+    <mergeCell ref="H63:M63"/>
+    <mergeCell ref="H64:M64"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -56297,7 +56370,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:K5"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -56321,14 +56394,14 @@
       <c r="K1" s="170"/>
     </row>
     <row r="2" spans="1:13" ht="25.5" customHeight="1">
-      <c r="K2" s="588" t="s">
-        <v>414</v>
+      <c r="K2" s="585" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.4">
       <c r="J3" s="270"/>
       <c r="K3" s="355" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="7.5" customHeight="1">
@@ -56336,19 +56409,19 @@
       <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A5" s="482" t="s">
+      <c r="A5" s="496" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="482"/>
-      <c r="C5" s="482"/>
-      <c r="D5" s="482"/>
-      <c r="E5" s="482"/>
-      <c r="F5" s="482"/>
-      <c r="G5" s="482"/>
-      <c r="H5" s="482"/>
-      <c r="I5" s="482"/>
-      <c r="J5" s="482"/>
-      <c r="K5" s="482"/>
+      <c r="B5" s="496"/>
+      <c r="C5" s="496"/>
+      <c r="D5" s="496"/>
+      <c r="E5" s="496"/>
+      <c r="F5" s="496"/>
+      <c r="G5" s="496"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="496"/>
+      <c r="J5" s="496"/>
+      <c r="K5" s="496"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:13">
@@ -56538,7 +56611,7 @@
     </row>
     <row r="17" spans="1:12" ht="18.75" customHeight="1">
       <c r="A17" s="271" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B17" s="272"/>
       <c r="C17" s="272"/>
@@ -56727,7 +56800,7 @@
     <row r="28" spans="1:12" ht="15.6">
       <c r="A28" s="272"/>
       <c r="B28" s="271" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C28" s="272"/>
       <c r="D28" s="272"/>
@@ -56740,7 +56813,7 @@
       </c>
       <c r="I28" s="271"/>
       <c r="J28" s="272" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K28" s="272"/>
     </row>
@@ -56787,12 +56860,12 @@
       <c r="F31" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="483" t="str">
+      <c r="G31" s="497" t="str">
         <f>MASTER!F9</f>
         <v>091/PM2/A1000000/III/24</v>
       </c>
-      <c r="H31" s="483"/>
-      <c r="I31" s="483"/>
+      <c r="H31" s="497"/>
+      <c r="I31" s="497"/>
       <c r="J31" s="273" t="s">
         <v>103</v>
       </c>
@@ -56817,12 +56890,12 @@
       <c r="F32" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="483">
+      <c r="G32" s="497">
         <f>MASTER!F10</f>
         <v>4100118118</v>
       </c>
-      <c r="H32" s="483"/>
-      <c r="I32" s="483"/>
+      <c r="H32" s="497"/>
+      <c r="I32" s="497"/>
       <c r="J32" s="273" t="s">
         <v>104</v>
       </c>
@@ -56875,7 +56948,7 @@
     <row r="36" spans="1:12" ht="18" customHeight="1">
       <c r="A36" s="272"/>
       <c r="B36" s="271" t="s">
-        <v>191</v>
+        <v>416</v>
       </c>
       <c r="C36" s="272"/>
       <c r="D36" s="272"/>
@@ -56890,7 +56963,7 @@
     <row r="37" spans="1:12" ht="18" customHeight="1">
       <c r="A37" s="272"/>
       <c r="B37" s="271" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C37" s="272"/>
       <c r="D37" s="272"/>
@@ -56905,7 +56978,7 @@
     <row r="38" spans="1:12" ht="18" customHeight="1">
       <c r="A38" s="272"/>
       <c r="B38" s="271" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C38" s="272"/>
       <c r="D38" s="272"/>
@@ -56920,7 +56993,7 @@
     <row r="39" spans="1:12" ht="15">
       <c r="A39" s="272"/>
       <c r="B39" s="271" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C39" s="272"/>
       <c r="D39" s="272"/>
@@ -57141,7 +57214,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="285" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B54" s="286"/>
       <c r="C54" s="286"/>
@@ -57258,109 +57331,109 @@
   <sheetData>
     <row r="1" spans="1:12" ht="24.6" thickBot="1">
       <c r="A1" s="343" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B1" s="344" t="s">
         <v>158</v>
       </c>
       <c r="C1" s="344" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="344" t="s">
+      <c r="E1" s="344" t="s">
         <v>262</v>
       </c>
-      <c r="E1" s="344" t="s">
+      <c r="F1" s="344" t="s">
         <v>263</v>
       </c>
-      <c r="F1" s="344" t="s">
+      <c r="G1" s="344" t="s">
         <v>264</v>
       </c>
-      <c r="G1" s="344" t="s">
+      <c r="H1" s="344" t="s">
         <v>265</v>
-      </c>
-      <c r="H1" s="344" t="s">
-        <v>266</v>
       </c>
       <c r="I1" s="344" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="344" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="344" t="s">
         <v>267</v>
       </c>
-      <c r="K1" s="344" t="s">
+      <c r="L1" s="344" t="s">
         <v>268</v>
       </c>
-      <c r="L1" s="344" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="28.8">
+      <c r="A2" s="503">
+        <v>281885</v>
+      </c>
+      <c r="B2" s="498" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="498" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.8">
-      <c r="A2" s="486">
-        <v>281885</v>
-      </c>
-      <c r="B2" s="484" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="484" t="s">
+      <c r="D2" s="498" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="500">
+        <v>106.45192</v>
+      </c>
+      <c r="F2" s="498">
+        <v>-6.2864000000000004</v>
+      </c>
+      <c r="G2" s="498" t="s">
         <v>270</v>
       </c>
-      <c r="D2" s="484" t="s">
-        <v>258</v>
-      </c>
-      <c r="E2" s="488">
-        <v>106.45192</v>
-      </c>
-      <c r="F2" s="484">
-        <v>-6.2864000000000004</v>
-      </c>
-      <c r="G2" s="484" t="s">
+      <c r="H2" s="500" t="s">
         <v>271</v>
       </c>
-      <c r="H2" s="488" t="s">
+      <c r="I2" s="498" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="484" t="s">
+      <c r="J2" s="345" t="s">
         <v>273</v>
       </c>
-      <c r="J2" s="345" t="s">
+      <c r="K2" s="502" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="498" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="52.5" customHeight="1" thickBot="1">
+      <c r="A3" s="504"/>
+      <c r="B3" s="499"/>
+      <c r="C3" s="499"/>
+      <c r="D3" s="499"/>
+      <c r="E3" s="501"/>
+      <c r="F3" s="499"/>
+      <c r="G3" s="499"/>
+      <c r="H3" s="501"/>
+      <c r="I3" s="499"/>
+      <c r="J3" s="346" t="s">
         <v>274</v>
       </c>
-      <c r="K2" s="490" t="s">
-        <v>277</v>
-      </c>
-      <c r="L2" s="484" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="52.5" customHeight="1" thickBot="1">
-      <c r="A3" s="487"/>
-      <c r="B3" s="485"/>
-      <c r="C3" s="485"/>
-      <c r="D3" s="485"/>
-      <c r="E3" s="489"/>
-      <c r="F3" s="485"/>
-      <c r="G3" s="485"/>
-      <c r="H3" s="489"/>
-      <c r="I3" s="485"/>
-      <c r="J3" s="346" t="s">
-        <v>275</v>
-      </c>
-      <c r="K3" s="485"/>
-      <c r="L3" s="485"/>
+      <c r="K3" s="499"/>
+      <c r="L3" s="499"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -57379,32 +57452,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="347" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="347" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="347" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="347" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="347" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="347" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -57412,22 +57485,22 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="348" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="348" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="348" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="348" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -57435,7 +57508,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="348" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -57443,12 +57516,12 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="349" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="348" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1">
@@ -57456,107 +57529,107 @@
     </row>
     <row r="18" spans="1:12" ht="24.6" thickBot="1">
       <c r="A18" s="343" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="344" t="s">
         <v>158</v>
       </c>
       <c r="C18" s="344" t="s">
+        <v>260</v>
+      </c>
+      <c r="D18" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="344" t="s">
+      <c r="E18" s="344" t="s">
         <v>262</v>
       </c>
-      <c r="E18" s="344" t="s">
+      <c r="F18" s="344" t="s">
         <v>263</v>
       </c>
-      <c r="F18" s="344" t="s">
+      <c r="G18" s="344" t="s">
         <v>264</v>
       </c>
-      <c r="G18" s="344" t="s">
+      <c r="H18" s="344" t="s">
         <v>265</v>
-      </c>
-      <c r="H18" s="344" t="s">
-        <v>266</v>
       </c>
       <c r="I18" s="344" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="344" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="344" t="s">
         <v>267</v>
       </c>
-      <c r="K18" s="344" t="s">
+      <c r="L18" s="344" t="s">
         <v>268</v>
       </c>
-      <c r="L18" s="344" t="s">
+    </row>
+    <row r="19" spans="1:12" ht="57.6">
+      <c r="A19" s="500">
+        <v>281885</v>
+      </c>
+      <c r="B19" s="500" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="500" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="43.2">
-      <c r="A19" s="488">
-        <v>281885</v>
-      </c>
-      <c r="B19" s="488" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="488" t="s">
+      <c r="D19" s="500" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="500">
+        <v>106.45192</v>
+      </c>
+      <c r="F19" s="500">
+        <v>-6.2864000000000004</v>
+      </c>
+      <c r="G19" s="500" t="s">
         <v>270</v>
       </c>
-      <c r="D19" s="488" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="488">
-        <v>106.45192</v>
-      </c>
-      <c r="F19" s="488">
-        <v>-6.2864000000000004</v>
-      </c>
-      <c r="G19" s="488" t="s">
+      <c r="H19" s="500" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="488" t="s">
+      <c r="I19" s="500" t="s">
         <v>272</v>
       </c>
-      <c r="I19" s="488" t="s">
+      <c r="J19" s="345" t="s">
         <v>273</v>
       </c>
-      <c r="J19" s="345" t="s">
+      <c r="K19" s="498">
+        <v>566401417358</v>
+      </c>
+      <c r="L19" s="498" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="58.2" thickBot="1">
+      <c r="A20" s="501"/>
+      <c r="B20" s="501"/>
+      <c r="C20" s="501"/>
+      <c r="D20" s="501"/>
+      <c r="E20" s="501"/>
+      <c r="F20" s="501"/>
+      <c r="G20" s="501"/>
+      <c r="H20" s="501"/>
+      <c r="I20" s="501"/>
+      <c r="J20" s="346" t="s">
         <v>274</v>
       </c>
-      <c r="K19" s="484">
-        <v>566401417358</v>
-      </c>
-      <c r="L19" s="484" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="58.2" thickBot="1">
-      <c r="A20" s="489"/>
-      <c r="B20" s="489"/>
-      <c r="C20" s="489"/>
-      <c r="D20" s="489"/>
-      <c r="E20" s="489"/>
-      <c r="F20" s="489"/>
-      <c r="G20" s="489"/>
-      <c r="H20" s="489"/>
-      <c r="I20" s="489"/>
-      <c r="J20" s="346" t="s">
-        <v>275</v>
-      </c>
-      <c r="K20" s="485"/>
-      <c r="L20" s="485"/>
+      <c r="K20" s="499"/>
+      <c r="L20" s="499"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="348"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="348" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="348" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -57564,7 +57637,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="350" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -57572,7 +57645,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="348" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -57580,7 +57653,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="348" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -57594,7 +57667,7 @@
     </row>
     <row r="33" spans="1:1" ht="16.2">
       <c r="A33" s="351" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -57608,27 +57681,27 @@
     </row>
     <row r="38" spans="1:1" ht="15.6">
       <c r="A38" s="352" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="353" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
@@ -57666,7 +57739,7 @@
     </row>
     <row r="57" spans="12:19">
       <c r="S57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="12:12">
